--- a/sources/Daten_Umfrage.xlsx
+++ b/sources/Daten_Umfrage.xlsx
@@ -9,11 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="15000" windowHeight="15440"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000"/>
   </bookViews>
   <sheets>
     <sheet name="Blatt1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Blatt1!$A$1:$Q$27</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -24,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="158">
   <si>
     <t>Land</t>
   </si>
@@ -323,36 +326,12 @@
     <t>Wortfolge</t>
   </si>
   <si>
-    <t>SVO</t>
-  </si>
-  <si>
-    <t>SOV</t>
-  </si>
-  <si>
     <t>Musik+Mozart</t>
   </si>
   <si>
-    <t>Adj+N</t>
-  </si>
-  <si>
     <t>NA</t>
   </si>
   <si>
-    <t>N+Adj</t>
-  </si>
-  <si>
-    <t>MuMo</t>
-  </si>
-  <si>
-    <t>MoMu</t>
-  </si>
-  <si>
-    <t>DET+N</t>
-  </si>
-  <si>
-    <t>N+DET</t>
-  </si>
-  <si>
     <t>Adjektiv+Nomen</t>
   </si>
   <si>
@@ -362,12 +341,6 @@
     <t>Numeral+Nomen</t>
   </si>
   <si>
-    <t>Beides</t>
-  </si>
-  <si>
-    <t>Num+N</t>
-  </si>
-  <si>
     <t>Farbe+Adjektiv</t>
   </si>
   <si>
@@ -380,46 +353,154 @@
     <t>Adjektiv+Adjektiv-Umfang</t>
   </si>
   <si>
-    <t>Fa+N</t>
-  </si>
-  <si>
-    <t>N+Fa</t>
-  </si>
-  <si>
     <t>Artikel+Farbe</t>
   </si>
   <si>
     <t>Artikel+Numeral</t>
   </si>
   <si>
-    <t>DET+Fa</t>
-  </si>
-  <si>
-    <t>DET+Num</t>
-  </si>
-  <si>
-    <t>Num+DET</t>
-  </si>
-  <si>
-    <t>DET+Adj</t>
-  </si>
-  <si>
-    <t>Adj+DET</t>
-  </si>
-  <si>
-    <t>Adj+Fa</t>
-  </si>
-  <si>
-    <t>Fa+Adj</t>
-  </si>
-  <si>
-    <t>Adj+Adj-U</t>
-  </si>
-  <si>
-    <t>Adj-U+Adj</t>
-  </si>
-  <si>
-    <t>Fa+DET</t>
+    <t>1 SVO</t>
+  </si>
+  <si>
+    <t>2 SOV</t>
+  </si>
+  <si>
+    <t>1 Adj+N</t>
+  </si>
+  <si>
+    <t>1 1 Adj+N</t>
+  </si>
+  <si>
+    <t>2 N+Adj</t>
+  </si>
+  <si>
+    <t>3 No dominant order</t>
+  </si>
+  <si>
+    <t>1 MuMo</t>
+  </si>
+  <si>
+    <t>2 MoMu</t>
+  </si>
+  <si>
+    <t>1 DET+Num</t>
+  </si>
+  <si>
+    <t>1 DET+N</t>
+  </si>
+  <si>
+    <t>2 N+DET</t>
+  </si>
+  <si>
+    <t>Familie</t>
+  </si>
+  <si>
+    <t>1 Fa+N</t>
+  </si>
+  <si>
+    <t>2 N+Fa</t>
+  </si>
+  <si>
+    <t>1 Num+N</t>
+  </si>
+  <si>
+    <t>1 DET+Fa</t>
+  </si>
+  <si>
+    <t>2 Fa+DET</t>
+  </si>
+  <si>
+    <t>2 Num+DET</t>
+  </si>
+  <si>
+    <t>1 DET+Adj</t>
+  </si>
+  <si>
+    <t>2 Adj+DET</t>
+  </si>
+  <si>
+    <t>1 Adj+Fa</t>
+  </si>
+  <si>
+    <t>2 Fa+Adj</t>
+  </si>
+  <si>
+    <t>1 Adj+Adj-U</t>
+  </si>
+  <si>
+    <t>2 Adj-U+Adj</t>
+  </si>
+  <si>
+    <t>Indo-European</t>
+  </si>
+  <si>
+    <t>Germanic</t>
+  </si>
+  <si>
+    <t>Gattung</t>
+  </si>
+  <si>
+    <t>Romance</t>
+  </si>
+  <si>
+    <t>Greek</t>
+  </si>
+  <si>
+    <t>Slavic</t>
+  </si>
+  <si>
+    <t>Armenian</t>
+  </si>
+  <si>
+    <t>Turkic</t>
+  </si>
+  <si>
+    <t>Altaic</t>
+  </si>
+  <si>
+    <t>Semitic</t>
+  </si>
+  <si>
+    <t>Afro-Asiatic</t>
+  </si>
+  <si>
+    <t>Sign Lagnguages</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>Chinese</t>
+  </si>
+  <si>
+    <t>Sino-Tibetan</t>
+  </si>
+  <si>
+    <t>Japanese</t>
+  </si>
+  <si>
+    <t>Korean</t>
+  </si>
+  <si>
+    <t>Indic</t>
+  </si>
+  <si>
+    <t>Viet-Muong</t>
+  </si>
+  <si>
+    <t>Austro-Asiatic</t>
+  </si>
+  <si>
+    <t>Malayo-Sumbawan</t>
+  </si>
+  <si>
+    <t>Austronesian</t>
+  </si>
+  <si>
+    <t>Kartvelian</t>
+  </si>
+  <si>
+    <t>Iranian</t>
   </si>
 </sst>
 </file>
@@ -780,1007 +861,1129 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O27"/>
+  <dimension ref="A1:Q27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="M27" sqref="M27"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14.1640625" customWidth="1"/>
     <col min="2" max="2" width="14.6640625" customWidth="1"/>
-    <col min="3" max="3" width="11.83203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.1640625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" customWidth="1"/>
-    <col min="7" max="7" width="13" customWidth="1"/>
-    <col min="8" max="8" width="13.1640625" customWidth="1"/>
-    <col min="9" max="9" width="12.6640625" customWidth="1"/>
-    <col min="10" max="12" width="15" customWidth="1"/>
-    <col min="13" max="13" width="14" customWidth="1"/>
-    <col min="14" max="14" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.83203125" customWidth="1"/>
+    <col min="3" max="3" width="17" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" customWidth="1"/>
+    <col min="5" max="5" width="11.83203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.1640625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="20.6640625" customWidth="1"/>
+    <col min="9" max="9" width="13" customWidth="1"/>
+    <col min="10" max="10" width="13.1640625" customWidth="1"/>
+    <col min="11" max="11" width="12.6640625" customWidth="1"/>
+    <col min="12" max="14" width="15" customWidth="1"/>
+    <col min="15" max="15" width="14" customWidth="1"/>
+    <col min="16" max="16" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="21.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>94</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>98</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
+        <v>101</v>
+      </c>
+      <c r="I1" t="s">
+        <v>99</v>
+      </c>
+      <c r="J1" t="s">
+        <v>106</v>
+      </c>
+      <c r="K1" t="s">
+        <v>102</v>
+      </c>
+      <c r="L1" t="s">
+        <v>103</v>
+      </c>
+      <c r="M1" t="s">
+        <v>108</v>
+      </c>
+      <c r="N1" t="s">
         <v>109</v>
       </c>
-      <c r="G1" t="s">
-        <v>101</v>
-      </c>
-      <c r="H1" t="s">
-        <v>116</v>
-      </c>
-      <c r="I1" t="s">
-        <v>110</v>
-      </c>
-      <c r="J1" t="s">
-        <v>111</v>
-      </c>
-      <c r="K1" t="s">
-        <v>120</v>
-      </c>
-      <c r="L1" t="s">
-        <v>121</v>
-      </c>
-      <c r="M1" t="s">
-        <v>115</v>
-      </c>
-      <c r="N1" t="s">
-        <v>114</v>
-      </c>
       <c r="O1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+        <v>105</v>
+      </c>
+      <c r="P1" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E2" t="s">
-        <v>99</v>
-      </c>
-      <c r="F2" t="s">
-        <v>102</v>
-      </c>
       <c r="G2" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="H2" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="I2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="J2" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="K2" t="s">
         <v>122</v>
       </c>
       <c r="L2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="M2" t="s">
         <v>125</v>
       </c>
       <c r="N2" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="O2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+        <v>128</v>
+      </c>
+      <c r="P2" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>7</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E3" t="s">
-        <v>99</v>
-      </c>
-      <c r="F3" t="s">
-        <v>102</v>
-      </c>
       <c r="G3" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="H3" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="I3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="J3" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="K3" t="s">
         <v>122</v>
       </c>
       <c r="L3" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="M3" t="s">
         <v>125</v>
       </c>
       <c r="N3" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="O3" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+        <v>128</v>
+      </c>
+      <c r="P3" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>10</v>
       </c>
       <c r="B4" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" t="s">
+        <v>135</v>
+      </c>
+      <c r="D4" t="s">
+        <v>134</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E4" t="s">
-        <v>99</v>
-      </c>
-      <c r="F4" t="s">
-        <v>102</v>
-      </c>
       <c r="G4" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="H4" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="I4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="J4" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="K4" t="s">
         <v>122</v>
       </c>
       <c r="L4" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="M4" t="s">
         <v>125</v>
       </c>
       <c r="N4" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="O4" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+        <v>128</v>
+      </c>
+      <c r="P4" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>14</v>
       </c>
       <c r="B5" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" t="s">
+        <v>137</v>
+      </c>
+      <c r="D5" t="s">
+        <v>134</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E5" t="s">
-        <v>99</v>
-      </c>
-      <c r="F5" t="s">
-        <v>112</v>
-      </c>
       <c r="G5" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="H5" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="I5" t="s">
+        <v>116</v>
+      </c>
+      <c r="J5" t="s">
         <v>119</v>
       </c>
-      <c r="J5" t="s">
-        <v>113</v>
-      </c>
       <c r="K5" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="L5" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="M5" t="s">
         <v>125</v>
       </c>
       <c r="N5" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="O5" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+        <v>128</v>
+      </c>
+      <c r="P5" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>19</v>
       </c>
       <c r="B6" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" t="s">
+        <v>137</v>
+      </c>
+      <c r="D6" t="s">
+        <v>134</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E6" t="s">
-        <v>99</v>
-      </c>
-      <c r="F6" t="s">
-        <v>104</v>
-      </c>
       <c r="G6" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="H6" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="I6" t="s">
+        <v>116</v>
+      </c>
+      <c r="J6" t="s">
         <v>119</v>
       </c>
-      <c r="J6" t="s">
-        <v>113</v>
-      </c>
       <c r="K6" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="L6" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="M6" t="s">
         <v>125</v>
       </c>
       <c r="N6" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="O6" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+        <v>128</v>
+      </c>
+      <c r="P6" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>23</v>
       </c>
       <c r="B7" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" t="s">
+        <v>138</v>
+      </c>
+      <c r="D7" t="s">
+        <v>134</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="F7" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E7" t="s">
-        <v>99</v>
-      </c>
-      <c r="F7" t="s">
-        <v>102</v>
-      </c>
       <c r="G7" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="H7" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="I7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="J7" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="K7" t="s">
         <v>122</v>
       </c>
       <c r="L7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="M7" t="s">
         <v>125</v>
       </c>
       <c r="N7" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="O7" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+        <v>128</v>
+      </c>
+      <c r="P7" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>27</v>
       </c>
       <c r="B8" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" t="s">
+        <v>137</v>
+      </c>
+      <c r="D8" t="s">
+        <v>134</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="F8" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E8" t="s">
-        <v>99</v>
-      </c>
-      <c r="F8" t="s">
-        <v>104</v>
-      </c>
       <c r="G8" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="H8" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="I8" t="s">
+        <v>116</v>
+      </c>
+      <c r="J8" t="s">
         <v>119</v>
       </c>
-      <c r="J8" t="s">
-        <v>113</v>
-      </c>
       <c r="K8" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="L8" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="M8" t="s">
         <v>125</v>
       </c>
       <c r="N8" t="s">
+        <v>118</v>
+      </c>
+      <c r="O8" t="s">
         <v>128</v>
       </c>
-      <c r="O8" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>30</v>
       </c>
       <c r="B9" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" t="s">
+        <v>139</v>
+      </c>
+      <c r="D9" t="s">
+        <v>134</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="F9" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E9" t="s">
-        <v>99</v>
-      </c>
-      <c r="F9" t="s">
-        <v>102</v>
-      </c>
       <c r="G9" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="H9" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="I9" t="s">
+        <v>116</v>
+      </c>
+      <c r="J9" t="s">
+        <v>119</v>
+      </c>
+      <c r="K9" t="s">
+        <v>122</v>
+      </c>
+      <c r="L9" t="s">
+        <v>124</v>
+      </c>
+      <c r="M9" t="s">
+        <v>100</v>
+      </c>
+      <c r="N9" t="s">
         <v>118</v>
       </c>
-      <c r="J9" t="s">
-        <v>113</v>
-      </c>
-      <c r="K9" t="s">
-        <v>103</v>
-      </c>
-      <c r="L9" t="s">
-        <v>123</v>
-      </c>
-      <c r="M9" t="s">
-        <v>125</v>
-      </c>
-      <c r="N9" t="s">
-        <v>127</v>
-      </c>
       <c r="O9" t="s">
+        <v>128</v>
+      </c>
+      <c r="P9" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q9" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>33</v>
       </c>
       <c r="B10" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" t="s">
+        <v>139</v>
+      </c>
+      <c r="D10" t="s">
+        <v>134</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="F10" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E10" t="s">
-        <v>99</v>
-      </c>
-      <c r="F10" t="s">
-        <v>102</v>
-      </c>
       <c r="G10" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="H10" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="I10" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="J10" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="K10" t="s">
         <v>122</v>
       </c>
       <c r="L10" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="M10" t="s">
         <v>125</v>
       </c>
       <c r="N10" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="O10" t="s">
+        <v>128</v>
+      </c>
+      <c r="P10" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q10" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>37</v>
       </c>
       <c r="B11" t="s">
         <v>38</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" t="s">
+        <v>139</v>
+      </c>
+      <c r="D11" t="s">
+        <v>134</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="F11" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E11" t="s">
-        <v>99</v>
-      </c>
-      <c r="F11" t="s">
-        <v>102</v>
-      </c>
       <c r="G11" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="H11" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="I11" t="s">
+        <v>116</v>
+      </c>
+      <c r="J11" t="s">
+        <v>119</v>
+      </c>
+      <c r="K11" t="s">
+        <v>122</v>
+      </c>
+      <c r="L11" t="s">
+        <v>124</v>
+      </c>
+      <c r="M11" t="s">
+        <v>100</v>
+      </c>
+      <c r="N11" t="s">
         <v>118</v>
       </c>
-      <c r="J11" t="s">
-        <v>113</v>
-      </c>
-      <c r="K11" t="s">
-        <v>103</v>
-      </c>
-      <c r="L11" t="s">
-        <v>123</v>
-      </c>
-      <c r="M11" t="s">
-        <v>125</v>
-      </c>
-      <c r="N11" t="s">
-        <v>127</v>
-      </c>
       <c r="O11" t="s">
+        <v>128</v>
+      </c>
+      <c r="P11" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q11" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>41</v>
       </c>
       <c r="B12" t="s">
         <v>42</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" t="s">
+        <v>137</v>
+      </c>
+      <c r="D12" t="s">
+        <v>134</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="F12" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E12" t="s">
-        <v>99</v>
-      </c>
-      <c r="F12" t="s">
-        <v>104</v>
-      </c>
       <c r="G12" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="H12" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="I12" t="s">
+        <v>116</v>
+      </c>
+      <c r="J12" t="s">
         <v>119</v>
       </c>
-      <c r="J12" t="s">
-        <v>113</v>
-      </c>
       <c r="K12" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="L12" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="M12" t="s">
         <v>125</v>
       </c>
       <c r="N12" t="s">
+        <v>118</v>
+      </c>
+      <c r="O12" t="s">
         <v>128</v>
       </c>
-      <c r="O12" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>45</v>
       </c>
       <c r="B13" t="s">
         <v>46</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" t="s">
+        <v>140</v>
+      </c>
+      <c r="D13" t="s">
+        <v>134</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="F13" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E13" t="s">
-        <v>99</v>
-      </c>
-      <c r="F13" t="s">
-        <v>102</v>
-      </c>
       <c r="G13" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="H13" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="I13" t="s">
+        <v>117</v>
+      </c>
+      <c r="J13" t="s">
+        <v>119</v>
+      </c>
+      <c r="K13" t="s">
+        <v>122</v>
+      </c>
+      <c r="L13" t="s">
+        <v>124</v>
+      </c>
+      <c r="M13" t="s">
+        <v>100</v>
+      </c>
+      <c r="N13" t="s">
         <v>118</v>
       </c>
-      <c r="J13" t="s">
-        <v>113</v>
-      </c>
-      <c r="K13" t="s">
-        <v>103</v>
-      </c>
-      <c r="L13" t="s">
-        <v>123</v>
-      </c>
-      <c r="M13" t="s">
-        <v>125</v>
-      </c>
-      <c r="N13" t="s">
-        <v>127</v>
-      </c>
       <c r="O13" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+        <v>128</v>
+      </c>
+      <c r="P13" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>49</v>
       </c>
       <c r="B14" t="s">
         <v>50</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" t="s">
+        <v>141</v>
+      </c>
+      <c r="D14" t="s">
+        <v>142</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="F14" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E14" t="s">
-        <v>100</v>
-      </c>
-      <c r="F14" t="s">
-        <v>102</v>
-      </c>
       <c r="G14" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="H14" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="I14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J14" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="K14" t="s">
         <v>122</v>
       </c>
       <c r="L14" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="M14" t="s">
         <v>125</v>
       </c>
       <c r="N14" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="O14" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+        <v>128</v>
+      </c>
+      <c r="P14" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>52</v>
       </c>
       <c r="B15" t="s">
         <v>53</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" t="s">
+        <v>143</v>
+      </c>
+      <c r="D15" t="s">
+        <v>144</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="F15" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E15" t="s">
-        <v>100</v>
-      </c>
-      <c r="F15" t="s">
-        <v>102</v>
-      </c>
       <c r="G15" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="H15" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="I15" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J15" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="K15" t="s">
         <v>122</v>
       </c>
       <c r="L15" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="M15" t="s">
         <v>125</v>
       </c>
       <c r="N15" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="O15" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+        <v>128</v>
+      </c>
+      <c r="P15" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>56</v>
       </c>
       <c r="B16" t="s">
         <v>57</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" t="s">
+        <v>145</v>
+      </c>
+      <c r="D16" t="s">
+        <v>146</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="F16" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="E16" t="s">
-        <v>99</v>
-      </c>
-      <c r="F16" t="s">
-        <v>102</v>
-      </c>
       <c r="G16" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="H16" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="I16" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J16" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="K16" t="s">
         <v>122</v>
       </c>
       <c r="L16" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="M16" t="s">
         <v>125</v>
       </c>
       <c r="N16" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="O16" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+        <v>128</v>
+      </c>
+      <c r="P16" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>59</v>
       </c>
       <c r="B17" t="s">
         <v>57</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" t="s">
+        <v>147</v>
+      </c>
+      <c r="D17" t="s">
+        <v>148</v>
+      </c>
+      <c r="E17" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="F17" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="E17" t="s">
-        <v>99</v>
-      </c>
-      <c r="F17" t="s">
-        <v>102</v>
-      </c>
       <c r="G17" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="H17" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="I17" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J17" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="K17" t="s">
         <v>122</v>
       </c>
       <c r="L17" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="M17" t="s">
         <v>125</v>
       </c>
       <c r="N17" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="O17" t="s">
+        <v>128</v>
+      </c>
+      <c r="P17" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q17" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>62</v>
       </c>
       <c r="B18" t="s">
         <v>63</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" t="s">
+        <v>149</v>
+      </c>
+      <c r="D18" t="s">
+        <v>149</v>
+      </c>
+      <c r="E18" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="F18" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="E18" t="s">
+      <c r="G18" t="s">
+        <v>111</v>
+      </c>
+      <c r="H18" t="s">
+        <v>112</v>
+      </c>
+      <c r="I18" t="s">
+        <v>117</v>
+      </c>
+      <c r="J18" t="s">
+        <v>119</v>
+      </c>
+      <c r="K18" t="s">
+        <v>122</v>
+      </c>
+      <c r="L18" t="s">
+        <v>124</v>
+      </c>
+      <c r="M18" t="s">
         <v>100</v>
       </c>
-      <c r="F18" t="s">
-        <v>102</v>
-      </c>
-      <c r="G18" t="s">
-        <v>106</v>
-      </c>
-      <c r="H18" t="s">
-        <v>107</v>
-      </c>
-      <c r="I18" t="s">
+      <c r="N18" t="s">
         <v>118</v>
       </c>
-      <c r="J18" t="s">
-        <v>113</v>
-      </c>
-      <c r="K18" t="s">
-        <v>103</v>
-      </c>
-      <c r="L18" t="s">
-        <v>123</v>
-      </c>
-      <c r="M18" t="s">
-        <v>125</v>
-      </c>
-      <c r="N18" t="s">
+      <c r="O18" t="s">
         <v>128</v>
       </c>
-      <c r="O18" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P18" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>66</v>
       </c>
       <c r="B19" t="s">
         <v>67</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" t="s">
+        <v>150</v>
+      </c>
+      <c r="D19" t="s">
+        <v>150</v>
+      </c>
+      <c r="E19" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="F19" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E19" t="s">
+      <c r="G19" t="s">
+        <v>111</v>
+      </c>
+      <c r="H19" t="s">
+        <v>112</v>
+      </c>
+      <c r="I19" t="s">
+        <v>117</v>
+      </c>
+      <c r="J19" t="s">
+        <v>119</v>
+      </c>
+      <c r="K19" t="s">
+        <v>122</v>
+      </c>
+      <c r="L19" t="s">
+        <v>124</v>
+      </c>
+      <c r="M19" t="s">
         <v>100</v>
       </c>
-      <c r="F19" t="s">
-        <v>102</v>
-      </c>
-      <c r="G19" t="s">
-        <v>106</v>
-      </c>
-      <c r="H19" t="s">
-        <v>107</v>
-      </c>
-      <c r="I19" t="s">
+      <c r="N19" t="s">
         <v>118</v>
       </c>
-      <c r="J19" t="s">
-        <v>113</v>
-      </c>
-      <c r="K19" t="s">
-        <v>103</v>
-      </c>
-      <c r="L19" t="s">
-        <v>123</v>
-      </c>
-      <c r="M19" t="s">
-        <v>125</v>
-      </c>
-      <c r="N19" t="s">
-        <v>127</v>
-      </c>
       <c r="O19" t="s">
+        <v>128</v>
+      </c>
+      <c r="P19" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q19" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>70</v>
       </c>
       <c r="B20" t="s">
         <v>71</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" t="s">
+        <v>151</v>
+      </c>
+      <c r="D20" t="s">
+        <v>134</v>
+      </c>
+      <c r="E20" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="F20" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="E20" t="s">
-        <v>100</v>
-      </c>
-      <c r="F20" t="s">
-        <v>102</v>
-      </c>
       <c r="G20" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="H20" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="I20" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J20" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="K20" t="s">
         <v>122</v>
       </c>
       <c r="L20" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="M20" t="s">
         <v>125</v>
       </c>
       <c r="N20" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="O20" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+        <v>128</v>
+      </c>
+      <c r="P20" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>73</v>
       </c>
       <c r="B21" t="s">
         <v>74</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" t="s">
+        <v>152</v>
+      </c>
+      <c r="D21" t="s">
+        <v>153</v>
+      </c>
+      <c r="E21" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="F21" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="E21" t="s">
-        <v>99</v>
-      </c>
-      <c r="F21" t="s">
-        <v>104</v>
-      </c>
       <c r="G21" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="H21" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="I21" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="J21" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="K21" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="L21" t="s">
         <v>124</v>
       </c>
       <c r="M21" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="N21" t="s">
         <v>127</v>
@@ -1788,84 +1991,96 @@
       <c r="O21" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P21" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>77</v>
       </c>
       <c r="B22" t="s">
         <v>78</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" t="s">
+        <v>154</v>
+      </c>
+      <c r="D22" t="s">
+        <v>155</v>
+      </c>
+      <c r="E22" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="F22" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="E22" t="s">
-        <v>99</v>
-      </c>
-      <c r="F22" t="s">
-        <v>112</v>
-      </c>
       <c r="G22" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="H22" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="I22" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="J22" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="K22" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="L22" t="s">
         <v>124</v>
       </c>
       <c r="M22" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="N22" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="O22" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+        <v>129</v>
+      </c>
+      <c r="P22" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>80</v>
       </c>
       <c r="B23" t="s">
         <v>81</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23" t="s">
+        <v>139</v>
+      </c>
+      <c r="D23" t="s">
+        <v>134</v>
+      </c>
+      <c r="E23" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="F23" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="E23" t="s">
-        <v>99</v>
-      </c>
-      <c r="F23" t="s">
-        <v>102</v>
-      </c>
       <c r="G23" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="H23" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="I23" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J23" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="K23" t="s">
         <v>122</v>
@@ -1880,201 +2095,232 @@
         <v>127</v>
       </c>
       <c r="O23" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+        <v>128</v>
+      </c>
+      <c r="P23" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>84</v>
       </c>
       <c r="B24" t="s">
         <v>85</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C24" t="s">
+        <v>156</v>
+      </c>
+      <c r="D24" t="s">
+        <v>156</v>
+      </c>
+      <c r="E24" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="F24" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="E24" t="s">
-        <v>99</v>
-      </c>
-      <c r="F24" t="s">
-        <v>102</v>
-      </c>
       <c r="G24" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="H24" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="I24" t="s">
+        <v>100</v>
+      </c>
+      <c r="J24" t="s">
+        <v>119</v>
+      </c>
+      <c r="K24" t="s">
+        <v>122</v>
+      </c>
+      <c r="L24" t="s">
+        <v>124</v>
+      </c>
+      <c r="M24" t="s">
+        <v>126</v>
+      </c>
+      <c r="N24" t="s">
         <v>118</v>
       </c>
-      <c r="J24" t="s">
-        <v>113</v>
-      </c>
-      <c r="K24" t="s">
-        <v>131</v>
-      </c>
-      <c r="L24" t="s">
-        <v>123</v>
-      </c>
-      <c r="M24" t="s">
-        <v>125</v>
-      </c>
-      <c r="N24" t="s">
-        <v>127</v>
-      </c>
       <c r="O24" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+        <v>128</v>
+      </c>
+      <c r="P24" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>87</v>
       </c>
       <c r="B25" t="s">
         <v>88</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C25" t="s">
+        <v>87</v>
+      </c>
+      <c r="D25" t="s">
+        <v>144</v>
+      </c>
+      <c r="E25" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="F25" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="E25" t="s">
-        <v>99</v>
-      </c>
-      <c r="F25" t="s">
-        <v>104</v>
-      </c>
       <c r="G25" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="H25" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="I25" t="s">
+        <v>116</v>
+      </c>
+      <c r="J25" t="s">
         <v>119</v>
       </c>
-      <c r="J25" t="s">
-        <v>113</v>
-      </c>
       <c r="K25" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="L25" t="s">
         <v>124</v>
       </c>
       <c r="M25" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N25" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="O25" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="P25" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>91</v>
       </c>
       <c r="B26" t="s">
         <v>46</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C26" t="s">
+        <v>157</v>
+      </c>
+      <c r="D26" t="s">
+        <v>134</v>
+      </c>
+      <c r="E26" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="F26" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="E26" t="s">
+      <c r="G26" t="s">
+        <v>111</v>
+      </c>
+      <c r="H26" t="s">
+        <v>114</v>
+      </c>
+      <c r="I26" t="s">
         <v>100</v>
       </c>
-      <c r="F26" t="s">
-        <v>104</v>
-      </c>
-      <c r="G26" t="s">
-        <v>103</v>
-      </c>
-      <c r="H26" t="s">
-        <v>103</v>
-      </c>
-      <c r="I26" t="s">
-        <v>119</v>
-      </c>
       <c r="J26" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="K26" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="L26" t="s">
-        <v>103</v>
+        <v>124</v>
       </c>
       <c r="M26" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N26" t="s">
-        <v>128</v>
+        <v>100</v>
       </c>
       <c r="O26" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="P26" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>18</v>
       </c>
       <c r="B27" t="s">
         <v>95</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C27" t="s">
+        <v>137</v>
+      </c>
+      <c r="D27" t="s">
+        <v>134</v>
+      </c>
+      <c r="E27" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="F27" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="E27" t="s">
-        <v>99</v>
-      </c>
-      <c r="F27" t="s">
-        <v>104</v>
-      </c>
       <c r="G27" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="H27" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="I27" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="J27" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="K27" t="s">
         <v>122</v>
       </c>
       <c r="L27" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="M27" t="s">
         <v>125</v>
       </c>
       <c r="N27" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="O27" t="s">
-        <v>129</v>
+        <v>128</v>
+      </c>
+      <c r="P27" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>132</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <ignoredErrors>
-    <ignoredError sqref="C21" twoDigitTextYear="1"/>
+    <ignoredError sqref="E21" twoDigitTextYear="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/sources/Daten_Umfrage.xlsx
+++ b/sources/Daten_Umfrage.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000"/>
+    <workbookView xWindow="13840" yWindow="460" windowWidth="14020" windowHeight="16060"/>
   </bookViews>
   <sheets>
     <sheet name="Blatt1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="161">
   <si>
     <t>Land</t>
   </si>
@@ -431,9 +431,6 @@
     <t>2 Adj-U+Adj</t>
   </si>
   <si>
-    <t>Indo-European</t>
-  </si>
-  <si>
     <t>Germanic</t>
   </si>
   <si>
@@ -455,27 +452,15 @@
     <t>Turkic</t>
   </si>
   <si>
-    <t>Altaic</t>
-  </si>
-  <si>
     <t>Semitic</t>
   </si>
   <si>
-    <t>Afro-Asiatic</t>
-  </si>
-  <si>
     <t>Sign Lagnguages</t>
   </si>
   <si>
-    <t>other</t>
-  </si>
-  <si>
     <t>Chinese</t>
   </si>
   <si>
-    <t>Sino-Tibetan</t>
-  </si>
-  <si>
     <t>Japanese</t>
   </si>
   <si>
@@ -488,19 +473,43 @@
     <t>Viet-Muong</t>
   </si>
   <si>
-    <t>Austro-Asiatic</t>
-  </si>
-  <si>
     <t>Malayo-Sumbawan</t>
   </si>
   <si>
-    <t>Austronesian</t>
-  </si>
-  <si>
     <t>Kartvelian</t>
   </si>
   <si>
     <t>Iranian</t>
+  </si>
+  <si>
+    <t>4 Chinesisch</t>
+  </si>
+  <si>
+    <t>1 1 Indoeuropäisch</t>
+  </si>
+  <si>
+    <t>2 Altaisch</t>
+  </si>
+  <si>
+    <t>3 Afroasiatisch</t>
+  </si>
+  <si>
+    <t>5 Sinotibetisch</t>
+  </si>
+  <si>
+    <t>6 Japanisch</t>
+  </si>
+  <si>
+    <t>7 Koreanisch</t>
+  </si>
+  <si>
+    <t>9 Austronesisch</t>
+  </si>
+  <si>
+    <t>8 Austroasiatisch</t>
+  </si>
+  <si>
+    <t>10 Südkaukasisch</t>
   </si>
 </sst>
 </file>
@@ -864,7 +873,7 @@
   <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -872,7 +881,7 @@
     <col min="1" max="1" width="14.1640625" customWidth="1"/>
     <col min="2" max="2" width="14.6640625" customWidth="1"/>
     <col min="3" max="3" width="17" customWidth="1"/>
-    <col min="4" max="4" width="14.6640625" customWidth="1"/>
+    <col min="4" max="4" width="19" customWidth="1"/>
     <col min="5" max="5" width="11.83203125" style="1" customWidth="1"/>
     <col min="6" max="6" width="12.1640625" style="2" customWidth="1"/>
     <col min="8" max="8" width="20.6640625" customWidth="1"/>
@@ -893,7 +902,7 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D1" t="s">
         <v>121</v>
@@ -946,10 +955,10 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D2" t="s">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>5</v>
@@ -999,10 +1008,10 @@
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D3" t="s">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>5</v>
@@ -1052,10 +1061,10 @@
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D4" t="s">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>12</v>
@@ -1105,10 +1114,10 @@
         <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D5" t="s">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>16</v>
@@ -1158,10 +1167,10 @@
         <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D6" t="s">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>21</v>
@@ -1211,10 +1220,10 @@
         <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D7" t="s">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>25</v>
@@ -1264,10 +1273,10 @@
         <v>28</v>
       </c>
       <c r="C8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D8" t="s">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>25</v>
@@ -1317,10 +1326,10 @@
         <v>31</v>
       </c>
       <c r="C9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D9" t="s">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>5</v>
@@ -1370,10 +1379,10 @@
         <v>34</v>
       </c>
       <c r="C10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D10" t="s">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>35</v>
@@ -1423,10 +1432,10 @@
         <v>38</v>
       </c>
       <c r="C11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D11" t="s">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>39</v>
@@ -1476,10 +1485,10 @@
         <v>42</v>
       </c>
       <c r="C12" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D12" t="s">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>43</v>
@@ -1529,10 +1538,10 @@
         <v>46</v>
       </c>
       <c r="C13" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D13" t="s">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>47</v>
@@ -1582,10 +1591,10 @@
         <v>50</v>
       </c>
       <c r="C14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D14" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>25</v>
@@ -1635,10 +1644,10 @@
         <v>53</v>
       </c>
       <c r="C15" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D15" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>54</v>
@@ -1688,10 +1697,10 @@
         <v>57</v>
       </c>
       <c r="C16" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D16" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>51</v>
@@ -1741,10 +1750,10 @@
         <v>57</v>
       </c>
       <c r="C17" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="D17" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>60</v>
@@ -1794,10 +1803,10 @@
         <v>63</v>
       </c>
       <c r="C18" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="D18" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>64</v>
@@ -1847,10 +1856,10 @@
         <v>67</v>
       </c>
       <c r="C19" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="D19" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>68</v>
@@ -1900,10 +1909,10 @@
         <v>71</v>
       </c>
       <c r="C20" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="D20" t="s">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>44</v>
@@ -1953,10 +1962,10 @@
         <v>74</v>
       </c>
       <c r="C21" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="D21" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>75</v>
@@ -2006,10 +2015,10 @@
         <v>78</v>
       </c>
       <c r="C22" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="D22" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>9</v>
@@ -2059,10 +2068,10 @@
         <v>81</v>
       </c>
       <c r="C23" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D23" t="s">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>82</v>
@@ -2112,10 +2121,10 @@
         <v>85</v>
       </c>
       <c r="C24" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="D24" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>86</v>
@@ -2168,7 +2177,7 @@
         <v>87</v>
       </c>
       <c r="D25" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>89</v>
@@ -2218,10 +2227,10 @@
         <v>46</v>
       </c>
       <c r="C26" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="D26" t="s">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>92</v>
@@ -2271,10 +2280,10 @@
         <v>95</v>
       </c>
       <c r="C27" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D27" t="s">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>96</v>

--- a/sources/Daten_Umfrage.xlsx
+++ b/sources/Daten_Umfrage.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="13840" yWindow="460" windowWidth="14020" windowHeight="16060"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16060"/>
   </bookViews>
   <sheets>
     <sheet name="Blatt1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="157">
   <si>
     <t>Land</t>
   </si>
@@ -329,9 +329,6 @@
     <t>Musik+Mozart</t>
   </si>
   <si>
-    <t>NA</t>
-  </si>
-  <si>
     <t>Adjektiv+Nomen</t>
   </si>
   <si>
@@ -359,78 +356,9 @@
     <t>Artikel+Numeral</t>
   </si>
   <si>
-    <t>1 SVO</t>
-  </si>
-  <si>
-    <t>2 SOV</t>
-  </si>
-  <si>
-    <t>1 Adj+N</t>
-  </si>
-  <si>
-    <t>1 1 Adj+N</t>
-  </si>
-  <si>
-    <t>2 N+Adj</t>
-  </si>
-  <si>
-    <t>3 No dominant order</t>
-  </si>
-  <si>
-    <t>1 MuMo</t>
-  </si>
-  <si>
-    <t>2 MoMu</t>
-  </si>
-  <si>
-    <t>1 DET+Num</t>
-  </si>
-  <si>
-    <t>1 DET+N</t>
-  </si>
-  <si>
-    <t>2 N+DET</t>
-  </si>
-  <si>
     <t>Familie</t>
   </si>
   <si>
-    <t>1 Fa+N</t>
-  </si>
-  <si>
-    <t>2 N+Fa</t>
-  </si>
-  <si>
-    <t>1 Num+N</t>
-  </si>
-  <si>
-    <t>1 DET+Fa</t>
-  </si>
-  <si>
-    <t>2 Fa+DET</t>
-  </si>
-  <si>
-    <t>2 Num+DET</t>
-  </si>
-  <si>
-    <t>1 DET+Adj</t>
-  </si>
-  <si>
-    <t>2 Adj+DET</t>
-  </si>
-  <si>
-    <t>1 Adj+Fa</t>
-  </si>
-  <si>
-    <t>2 Fa+Adj</t>
-  </si>
-  <si>
-    <t>1 Adj+Adj-U</t>
-  </si>
-  <si>
-    <t>2 Adj-U+Adj</t>
-  </si>
-  <si>
     <t>Germanic</t>
   </si>
   <si>
@@ -482,34 +410,94 @@
     <t>Iranian</t>
   </si>
   <si>
-    <t>4 Chinesisch</t>
-  </si>
-  <si>
-    <t>1 1 Indoeuropäisch</t>
-  </si>
-  <si>
-    <t>2 Altaisch</t>
-  </si>
-  <si>
-    <t>3 Afroasiatisch</t>
-  </si>
-  <si>
-    <t>5 Sinotibetisch</t>
-  </si>
-  <si>
-    <t>6 Japanisch</t>
-  </si>
-  <si>
-    <t>7 Koreanisch</t>
-  </si>
-  <si>
-    <t>9 Austronesisch</t>
-  </si>
-  <si>
-    <t>8 Austroasiatisch</t>
-  </si>
-  <si>
-    <t>10 Südkaukasisch</t>
+    <t>Indoeuropäisch</t>
+  </si>
+  <si>
+    <t>Altaisch</t>
+  </si>
+  <si>
+    <t>Afroasiatisch</t>
+  </si>
+  <si>
+    <t>Sinotibetisch</t>
+  </si>
+  <si>
+    <t>Austroasiatisch</t>
+  </si>
+  <si>
+    <t>Austronesisch</t>
+  </si>
+  <si>
+    <t>Südkaukasisch</t>
+  </si>
+  <si>
+    <t>SVO</t>
+  </si>
+  <si>
+    <t>SOV</t>
+  </si>
+  <si>
+    <t>nicht klar</t>
+  </si>
+  <si>
+    <t>Adj+N</t>
+  </si>
+  <si>
+    <t>N+Adj</t>
+  </si>
+  <si>
+    <t>No domiant order</t>
+  </si>
+  <si>
+    <t>MuMo</t>
+  </si>
+  <si>
+    <t>MoMu</t>
+  </si>
+  <si>
+    <t>DET+N</t>
+  </si>
+  <si>
+    <t>DET+Num</t>
+  </si>
+  <si>
+    <t>N+DET</t>
+  </si>
+  <si>
+    <t>Num+N</t>
+  </si>
+  <si>
+    <t>Fa+N</t>
+  </si>
+  <si>
+    <t>N+Fa</t>
+  </si>
+  <si>
+    <t>DET+Fa</t>
+  </si>
+  <si>
+    <t>Fa+DET</t>
+  </si>
+  <si>
+    <t>Num+DET</t>
+  </si>
+  <si>
+    <t>DET+Adj</t>
+  </si>
+  <si>
+    <t>Adj+DET</t>
+  </si>
+  <si>
+    <t>Adj+Fa</t>
+  </si>
+  <si>
+    <t>Fa+Adj</t>
+  </si>
+  <si>
+    <t>Adj+Adj-U</t>
+  </si>
+  <si>
+    <t>Adj-U+Adj</t>
   </si>
 </sst>
 </file>
@@ -873,7 +861,7 @@
   <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -902,10 +890,10 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>135</v>
+        <v>111</v>
       </c>
       <c r="D1" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>1</v>
@@ -917,34 +905,34 @@
         <v>98</v>
       </c>
       <c r="H1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I1" t="s">
         <v>99</v>
       </c>
       <c r="J1" t="s">
+        <v>105</v>
+      </c>
+      <c r="K1" t="s">
+        <v>101</v>
+      </c>
+      <c r="L1" t="s">
+        <v>102</v>
+      </c>
+      <c r="M1" t="s">
+        <v>107</v>
+      </c>
+      <c r="N1" t="s">
+        <v>108</v>
+      </c>
+      <c r="O1" t="s">
+        <v>104</v>
+      </c>
+      <c r="P1" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q1" t="s">
         <v>106</v>
-      </c>
-      <c r="K1" t="s">
-        <v>102</v>
-      </c>
-      <c r="L1" t="s">
-        <v>103</v>
-      </c>
-      <c r="M1" t="s">
-        <v>108</v>
-      </c>
-      <c r="N1" t="s">
-        <v>109</v>
-      </c>
-      <c r="O1" t="s">
-        <v>105</v>
-      </c>
-      <c r="P1" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
@@ -955,10 +943,10 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>134</v>
+        <v>110</v>
       </c>
       <c r="D2" t="s">
-        <v>152</v>
+        <v>127</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>5</v>
@@ -967,37 +955,37 @@
         <v>6</v>
       </c>
       <c r="G2" t="s">
-        <v>110</v>
+        <v>134</v>
       </c>
       <c r="H2" t="s">
-        <v>113</v>
+        <v>137</v>
       </c>
       <c r="I2" t="s">
-        <v>116</v>
+        <v>140</v>
       </c>
       <c r="J2" t="s">
-        <v>119</v>
+        <v>142</v>
       </c>
       <c r="K2" t="s">
-        <v>122</v>
+        <v>146</v>
       </c>
       <c r="L2" t="s">
-        <v>124</v>
+        <v>145</v>
       </c>
       <c r="M2" t="s">
-        <v>125</v>
+        <v>148</v>
       </c>
       <c r="N2" t="s">
-        <v>118</v>
+        <v>143</v>
       </c>
       <c r="O2" t="s">
-        <v>128</v>
+        <v>151</v>
       </c>
       <c r="P2" t="s">
-        <v>130</v>
+        <v>153</v>
       </c>
       <c r="Q2" t="s">
-        <v>132</v>
+        <v>155</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
@@ -1008,10 +996,10 @@
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>134</v>
+        <v>110</v>
       </c>
       <c r="D3" t="s">
-        <v>152</v>
+        <v>127</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>5</v>
@@ -1020,37 +1008,37 @@
         <v>9</v>
       </c>
       <c r="G3" t="s">
-        <v>110</v>
+        <v>134</v>
       </c>
       <c r="H3" t="s">
-        <v>112</v>
+        <v>137</v>
       </c>
       <c r="I3" t="s">
-        <v>116</v>
+        <v>140</v>
       </c>
       <c r="J3" t="s">
-        <v>119</v>
+        <v>142</v>
       </c>
       <c r="K3" t="s">
-        <v>122</v>
+        <v>146</v>
       </c>
       <c r="L3" t="s">
-        <v>124</v>
+        <v>145</v>
       </c>
       <c r="M3" t="s">
-        <v>125</v>
+        <v>148</v>
       </c>
       <c r="N3" t="s">
-        <v>118</v>
+        <v>143</v>
       </c>
       <c r="O3" t="s">
-        <v>128</v>
+        <v>151</v>
       </c>
       <c r="P3" t="s">
-        <v>130</v>
+        <v>153</v>
       </c>
       <c r="Q3" t="s">
-        <v>132</v>
+        <v>155</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
@@ -1061,10 +1049,10 @@
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>134</v>
+        <v>110</v>
       </c>
       <c r="D4" t="s">
-        <v>152</v>
+        <v>127</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>12</v>
@@ -1073,37 +1061,37 @@
         <v>13</v>
       </c>
       <c r="G4" t="s">
-        <v>110</v>
+        <v>134</v>
       </c>
       <c r="H4" t="s">
-        <v>112</v>
+        <v>137</v>
       </c>
       <c r="I4" t="s">
-        <v>116</v>
+        <v>140</v>
       </c>
       <c r="J4" t="s">
-        <v>119</v>
+        <v>142</v>
       </c>
       <c r="K4" t="s">
-        <v>122</v>
+        <v>146</v>
       </c>
       <c r="L4" t="s">
-        <v>124</v>
+        <v>145</v>
       </c>
       <c r="M4" t="s">
-        <v>125</v>
+        <v>148</v>
       </c>
       <c r="N4" t="s">
-        <v>118</v>
+        <v>143</v>
       </c>
       <c r="O4" t="s">
-        <v>128</v>
+        <v>151</v>
       </c>
       <c r="P4" t="s">
-        <v>130</v>
+        <v>153</v>
       </c>
       <c r="Q4" t="s">
-        <v>132</v>
+        <v>155</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
@@ -1114,10 +1102,10 @@
         <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>136</v>
+        <v>112</v>
       </c>
       <c r="D5" t="s">
-        <v>152</v>
+        <v>127</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>16</v>
@@ -1126,37 +1114,37 @@
         <v>17</v>
       </c>
       <c r="G5" t="s">
-        <v>110</v>
+        <v>134</v>
       </c>
       <c r="H5" t="s">
-        <v>115</v>
+        <v>139</v>
       </c>
       <c r="I5" t="s">
-        <v>116</v>
+        <v>140</v>
       </c>
       <c r="J5" t="s">
-        <v>119</v>
+        <v>142</v>
       </c>
       <c r="K5" t="s">
-        <v>123</v>
+        <v>147</v>
       </c>
       <c r="L5" t="s">
-        <v>124</v>
+        <v>145</v>
       </c>
       <c r="M5" t="s">
-        <v>125</v>
+        <v>148</v>
       </c>
       <c r="N5" t="s">
-        <v>118</v>
+        <v>143</v>
       </c>
       <c r="O5" t="s">
-        <v>128</v>
+        <v>151</v>
       </c>
       <c r="P5" t="s">
-        <v>130</v>
+        <v>153</v>
       </c>
       <c r="Q5" t="s">
-        <v>132</v>
+        <v>155</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
@@ -1167,10 +1155,10 @@
         <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>136</v>
+        <v>112</v>
       </c>
       <c r="D6" t="s">
-        <v>152</v>
+        <v>127</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>21</v>
@@ -1179,37 +1167,37 @@
         <v>22</v>
       </c>
       <c r="G6" t="s">
-        <v>110</v>
+        <v>134</v>
       </c>
       <c r="H6" t="s">
-        <v>114</v>
+        <v>138</v>
       </c>
       <c r="I6" t="s">
-        <v>116</v>
+        <v>140</v>
       </c>
       <c r="J6" t="s">
-        <v>119</v>
+        <v>142</v>
       </c>
       <c r="K6" t="s">
-        <v>123</v>
+        <v>147</v>
       </c>
       <c r="L6" t="s">
-        <v>124</v>
+        <v>145</v>
       </c>
       <c r="M6" t="s">
-        <v>125</v>
+        <v>148</v>
       </c>
       <c r="N6" t="s">
-        <v>118</v>
+        <v>143</v>
       </c>
       <c r="O6" t="s">
-        <v>128</v>
+        <v>151</v>
       </c>
       <c r="P6" t="s">
-        <v>130</v>
+        <v>153</v>
       </c>
       <c r="Q6" t="s">
-        <v>132</v>
+        <v>155</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
@@ -1220,10 +1208,10 @@
         <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>137</v>
+        <v>113</v>
       </c>
       <c r="D7" t="s">
-        <v>152</v>
+        <v>127</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>25</v>
@@ -1232,37 +1220,37 @@
         <v>26</v>
       </c>
       <c r="G7" t="s">
-        <v>110</v>
+        <v>134</v>
       </c>
       <c r="H7" t="s">
-        <v>112</v>
+        <v>137</v>
       </c>
       <c r="I7" t="s">
-        <v>116</v>
+        <v>140</v>
       </c>
       <c r="J7" t="s">
-        <v>119</v>
+        <v>142</v>
       </c>
       <c r="K7" t="s">
-        <v>122</v>
+        <v>146</v>
       </c>
       <c r="L7" t="s">
-        <v>124</v>
+        <v>145</v>
       </c>
       <c r="M7" t="s">
-        <v>125</v>
+        <v>148</v>
       </c>
       <c r="N7" t="s">
-        <v>118</v>
+        <v>143</v>
       </c>
       <c r="O7" t="s">
-        <v>128</v>
+        <v>151</v>
       </c>
       <c r="P7" t="s">
-        <v>130</v>
+        <v>153</v>
       </c>
       <c r="Q7" t="s">
-        <v>132</v>
+        <v>155</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
@@ -1273,10 +1261,10 @@
         <v>28</v>
       </c>
       <c r="C8" t="s">
-        <v>136</v>
+        <v>112</v>
       </c>
       <c r="D8" t="s">
-        <v>152</v>
+        <v>127</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>25</v>
@@ -1285,37 +1273,37 @@
         <v>29</v>
       </c>
       <c r="G8" t="s">
-        <v>110</v>
+        <v>134</v>
       </c>
       <c r="H8" t="s">
-        <v>114</v>
+        <v>138</v>
       </c>
       <c r="I8" t="s">
-        <v>116</v>
+        <v>140</v>
       </c>
       <c r="J8" t="s">
-        <v>119</v>
+        <v>142</v>
       </c>
       <c r="K8" t="s">
-        <v>123</v>
+        <v>147</v>
       </c>
       <c r="L8" t="s">
-        <v>124</v>
+        <v>145</v>
       </c>
       <c r="M8" t="s">
-        <v>125</v>
+        <v>148</v>
       </c>
       <c r="N8" t="s">
-        <v>118</v>
+        <v>143</v>
       </c>
       <c r="O8" t="s">
-        <v>128</v>
+        <v>151</v>
       </c>
       <c r="P8" t="s">
-        <v>131</v>
+        <v>154</v>
       </c>
       <c r="Q8" t="s">
-        <v>133</v>
+        <v>156</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
@@ -1326,10 +1314,10 @@
         <v>31</v>
       </c>
       <c r="C9" t="s">
-        <v>138</v>
+        <v>114</v>
       </c>
       <c r="D9" t="s">
-        <v>152</v>
+        <v>127</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>5</v>
@@ -1338,37 +1326,37 @@
         <v>32</v>
       </c>
       <c r="G9" t="s">
-        <v>110</v>
+        <v>134</v>
       </c>
       <c r="H9" t="s">
-        <v>112</v>
+        <v>137</v>
       </c>
       <c r="I9" t="s">
-        <v>116</v>
+        <v>140</v>
       </c>
       <c r="J9" t="s">
-        <v>119</v>
+        <v>142</v>
       </c>
       <c r="K9" t="s">
-        <v>122</v>
+        <v>146</v>
       </c>
       <c r="L9" t="s">
-        <v>124</v>
+        <v>145</v>
       </c>
       <c r="M9" t="s">
-        <v>100</v>
+        <v>136</v>
       </c>
       <c r="N9" t="s">
-        <v>118</v>
+        <v>143</v>
       </c>
       <c r="O9" t="s">
-        <v>128</v>
+        <v>151</v>
       </c>
       <c r="P9" t="s">
-        <v>130</v>
+        <v>153</v>
       </c>
       <c r="Q9" t="s">
-        <v>133</v>
+        <v>156</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
@@ -1379,10 +1367,10 @@
         <v>34</v>
       </c>
       <c r="C10" t="s">
-        <v>138</v>
+        <v>114</v>
       </c>
       <c r="D10" t="s">
-        <v>152</v>
+        <v>127</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>35</v>
@@ -1391,37 +1379,37 @@
         <v>36</v>
       </c>
       <c r="G10" t="s">
-        <v>110</v>
+        <v>134</v>
       </c>
       <c r="H10" t="s">
-        <v>112</v>
+        <v>137</v>
       </c>
       <c r="I10" t="s">
-        <v>116</v>
+        <v>140</v>
       </c>
       <c r="J10" t="s">
-        <v>119</v>
+        <v>142</v>
       </c>
       <c r="K10" t="s">
-        <v>122</v>
+        <v>146</v>
       </c>
       <c r="L10" t="s">
-        <v>124</v>
+        <v>145</v>
       </c>
       <c r="M10" t="s">
-        <v>125</v>
+        <v>148</v>
       </c>
       <c r="N10" t="s">
-        <v>118</v>
+        <v>143</v>
       </c>
       <c r="O10" t="s">
-        <v>128</v>
+        <v>151</v>
       </c>
       <c r="P10" t="s">
-        <v>130</v>
+        <v>153</v>
       </c>
       <c r="Q10" t="s">
-        <v>133</v>
+        <v>156</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.2">
@@ -1432,10 +1420,10 @@
         <v>38</v>
       </c>
       <c r="C11" t="s">
-        <v>138</v>
+        <v>114</v>
       </c>
       <c r="D11" t="s">
-        <v>152</v>
+        <v>127</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>39</v>
@@ -1444,37 +1432,37 @@
         <v>40</v>
       </c>
       <c r="G11" t="s">
-        <v>110</v>
+        <v>134</v>
       </c>
       <c r="H11" t="s">
-        <v>112</v>
+        <v>137</v>
       </c>
       <c r="I11" t="s">
-        <v>116</v>
+        <v>140</v>
       </c>
       <c r="J11" t="s">
-        <v>119</v>
+        <v>142</v>
       </c>
       <c r="K11" t="s">
-        <v>122</v>
+        <v>146</v>
       </c>
       <c r="L11" t="s">
-        <v>124</v>
+        <v>145</v>
       </c>
       <c r="M11" t="s">
-        <v>100</v>
+        <v>136</v>
       </c>
       <c r="N11" t="s">
-        <v>118</v>
+        <v>143</v>
       </c>
       <c r="O11" t="s">
-        <v>128</v>
+        <v>151</v>
       </c>
       <c r="P11" t="s">
-        <v>130</v>
+        <v>153</v>
       </c>
       <c r="Q11" t="s">
-        <v>133</v>
+        <v>156</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.2">
@@ -1485,10 +1473,10 @@
         <v>42</v>
       </c>
       <c r="C12" t="s">
-        <v>136</v>
+        <v>112</v>
       </c>
       <c r="D12" t="s">
-        <v>152</v>
+        <v>127</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>43</v>
@@ -1497,37 +1485,37 @@
         <v>44</v>
       </c>
       <c r="G12" t="s">
-        <v>110</v>
+        <v>134</v>
       </c>
       <c r="H12" t="s">
-        <v>114</v>
+        <v>138</v>
       </c>
       <c r="I12" t="s">
-        <v>116</v>
+        <v>140</v>
       </c>
       <c r="J12" t="s">
-        <v>119</v>
+        <v>142</v>
       </c>
       <c r="K12" t="s">
-        <v>123</v>
+        <v>147</v>
       </c>
       <c r="L12" t="s">
-        <v>124</v>
+        <v>145</v>
       </c>
       <c r="M12" t="s">
-        <v>125</v>
+        <v>148</v>
       </c>
       <c r="N12" t="s">
-        <v>118</v>
+        <v>143</v>
       </c>
       <c r="O12" t="s">
-        <v>128</v>
+        <v>151</v>
       </c>
       <c r="P12" t="s">
-        <v>131</v>
+        <v>154</v>
       </c>
       <c r="Q12" t="s">
-        <v>133</v>
+        <v>156</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.2">
@@ -1538,10 +1526,10 @@
         <v>46</v>
       </c>
       <c r="C13" t="s">
-        <v>139</v>
+        <v>115</v>
       </c>
       <c r="D13" t="s">
-        <v>152</v>
+        <v>127</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>47</v>
@@ -1550,37 +1538,37 @@
         <v>48</v>
       </c>
       <c r="G13" t="s">
-        <v>110</v>
+        <v>134</v>
       </c>
       <c r="H13" t="s">
-        <v>112</v>
+        <v>137</v>
       </c>
       <c r="I13" t="s">
-        <v>117</v>
+        <v>141</v>
       </c>
       <c r="J13" t="s">
-        <v>119</v>
+        <v>142</v>
       </c>
       <c r="K13" t="s">
-        <v>122</v>
+        <v>146</v>
       </c>
       <c r="L13" t="s">
-        <v>124</v>
+        <v>145</v>
       </c>
       <c r="M13" t="s">
-        <v>100</v>
+        <v>136</v>
       </c>
       <c r="N13" t="s">
-        <v>118</v>
+        <v>143</v>
       </c>
       <c r="O13" t="s">
-        <v>128</v>
+        <v>151</v>
       </c>
       <c r="P13" t="s">
-        <v>130</v>
+        <v>153</v>
       </c>
       <c r="Q13" t="s">
-        <v>132</v>
+        <v>155</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.2">
@@ -1591,10 +1579,10 @@
         <v>50</v>
       </c>
       <c r="C14" t="s">
-        <v>140</v>
+        <v>116</v>
       </c>
       <c r="D14" t="s">
-        <v>153</v>
+        <v>128</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>25</v>
@@ -1603,37 +1591,37 @@
         <v>51</v>
       </c>
       <c r="G14" t="s">
-        <v>111</v>
+        <v>135</v>
       </c>
       <c r="H14" t="s">
-        <v>112</v>
+        <v>137</v>
       </c>
       <c r="I14" t="s">
-        <v>117</v>
+        <v>141</v>
       </c>
       <c r="J14" t="s">
-        <v>119</v>
+        <v>142</v>
       </c>
       <c r="K14" t="s">
-        <v>122</v>
+        <v>146</v>
       </c>
       <c r="L14" t="s">
-        <v>124</v>
+        <v>145</v>
       </c>
       <c r="M14" t="s">
-        <v>125</v>
+        <v>148</v>
       </c>
       <c r="N14" t="s">
-        <v>118</v>
+        <v>143</v>
       </c>
       <c r="O14" t="s">
-        <v>128</v>
+        <v>151</v>
       </c>
       <c r="P14" t="s">
-        <v>130</v>
+        <v>153</v>
       </c>
       <c r="Q14" t="s">
-        <v>132</v>
+        <v>155</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.2">
@@ -1644,10 +1632,10 @@
         <v>53</v>
       </c>
       <c r="C15" t="s">
-        <v>141</v>
+        <v>117</v>
       </c>
       <c r="D15" t="s">
-        <v>154</v>
+        <v>129</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>54</v>
@@ -1656,37 +1644,37 @@
         <v>55</v>
       </c>
       <c r="G15" t="s">
-        <v>111</v>
+        <v>135</v>
       </c>
       <c r="H15" t="s">
-        <v>112</v>
+        <v>137</v>
       </c>
       <c r="I15" t="s">
-        <v>117</v>
+        <v>141</v>
       </c>
       <c r="J15" t="s">
-        <v>119</v>
+        <v>142</v>
       </c>
       <c r="K15" t="s">
-        <v>122</v>
+        <v>146</v>
       </c>
       <c r="L15" t="s">
-        <v>124</v>
+        <v>145</v>
       </c>
       <c r="M15" t="s">
-        <v>125</v>
+        <v>148</v>
       </c>
       <c r="N15" t="s">
-        <v>118</v>
+        <v>143</v>
       </c>
       <c r="O15" t="s">
-        <v>128</v>
+        <v>151</v>
       </c>
       <c r="P15" t="s">
-        <v>130</v>
+        <v>153</v>
       </c>
       <c r="Q15" t="s">
-        <v>132</v>
+        <v>155</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.2">
@@ -1697,10 +1685,10 @@
         <v>57</v>
       </c>
       <c r="C16" t="s">
-        <v>142</v>
+        <v>118</v>
       </c>
       <c r="D16" t="s">
-        <v>151</v>
+        <v>56</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>51</v>
@@ -1709,37 +1697,37 @@
         <v>58</v>
       </c>
       <c r="G16" t="s">
-        <v>110</v>
+        <v>134</v>
       </c>
       <c r="H16" t="s">
-        <v>112</v>
+        <v>137</v>
       </c>
       <c r="I16" t="s">
-        <v>117</v>
+        <v>141</v>
       </c>
       <c r="J16" t="s">
-        <v>119</v>
+        <v>142</v>
       </c>
       <c r="K16" t="s">
-        <v>122</v>
+        <v>146</v>
       </c>
       <c r="L16" t="s">
-        <v>124</v>
+        <v>145</v>
       </c>
       <c r="M16" t="s">
-        <v>125</v>
+        <v>148</v>
       </c>
       <c r="N16" t="s">
-        <v>118</v>
+        <v>143</v>
       </c>
       <c r="O16" t="s">
-        <v>128</v>
+        <v>151</v>
       </c>
       <c r="P16" t="s">
-        <v>130</v>
+        <v>153</v>
       </c>
       <c r="Q16" t="s">
-        <v>132</v>
+        <v>155</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.2">
@@ -1750,10 +1738,10 @@
         <v>57</v>
       </c>
       <c r="C17" t="s">
-        <v>143</v>
+        <v>119</v>
       </c>
       <c r="D17" t="s">
-        <v>155</v>
+        <v>130</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>60</v>
@@ -1762,37 +1750,37 @@
         <v>61</v>
       </c>
       <c r="G17" t="s">
-        <v>110</v>
+        <v>134</v>
       </c>
       <c r="H17" t="s">
-        <v>112</v>
+        <v>137</v>
       </c>
       <c r="I17" t="s">
-        <v>117</v>
+        <v>141</v>
       </c>
       <c r="J17" t="s">
-        <v>119</v>
+        <v>142</v>
       </c>
       <c r="K17" t="s">
-        <v>122</v>
+        <v>146</v>
       </c>
       <c r="L17" t="s">
-        <v>124</v>
+        <v>145</v>
       </c>
       <c r="M17" t="s">
-        <v>125</v>
+        <v>148</v>
       </c>
       <c r="N17" t="s">
-        <v>118</v>
+        <v>143</v>
       </c>
       <c r="O17" t="s">
-        <v>128</v>
+        <v>151</v>
       </c>
       <c r="P17" t="s">
-        <v>130</v>
+        <v>153</v>
       </c>
       <c r="Q17" t="s">
-        <v>133</v>
+        <v>156</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.2">
@@ -1803,10 +1791,10 @@
         <v>63</v>
       </c>
       <c r="C18" t="s">
-        <v>144</v>
+        <v>120</v>
       </c>
       <c r="D18" t="s">
-        <v>156</v>
+        <v>62</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>64</v>
@@ -1815,37 +1803,37 @@
         <v>65</v>
       </c>
       <c r="G18" t="s">
-        <v>111</v>
+        <v>135</v>
       </c>
       <c r="H18" t="s">
-        <v>112</v>
+        <v>137</v>
       </c>
       <c r="I18" t="s">
-        <v>117</v>
+        <v>141</v>
       </c>
       <c r="J18" t="s">
-        <v>119</v>
+        <v>142</v>
       </c>
       <c r="K18" t="s">
-        <v>122</v>
+        <v>146</v>
       </c>
       <c r="L18" t="s">
-        <v>124</v>
+        <v>145</v>
       </c>
       <c r="M18" t="s">
-        <v>100</v>
+        <v>136</v>
       </c>
       <c r="N18" t="s">
-        <v>118</v>
+        <v>143</v>
       </c>
       <c r="O18" t="s">
-        <v>128</v>
+        <v>151</v>
       </c>
       <c r="P18" t="s">
-        <v>131</v>
+        <v>154</v>
       </c>
       <c r="Q18" t="s">
-        <v>132</v>
+        <v>155</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.2">
@@ -1856,10 +1844,10 @@
         <v>67</v>
       </c>
       <c r="C19" t="s">
-        <v>145</v>
+        <v>121</v>
       </c>
       <c r="D19" t="s">
-        <v>157</v>
+        <v>66</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>68</v>
@@ -1868,37 +1856,37 @@
         <v>69</v>
       </c>
       <c r="G19" t="s">
-        <v>111</v>
+        <v>135</v>
       </c>
       <c r="H19" t="s">
-        <v>112</v>
+        <v>137</v>
       </c>
       <c r="I19" t="s">
-        <v>117</v>
+        <v>141</v>
       </c>
       <c r="J19" t="s">
-        <v>119</v>
+        <v>142</v>
       </c>
       <c r="K19" t="s">
-        <v>122</v>
+        <v>146</v>
       </c>
       <c r="L19" t="s">
-        <v>124</v>
+        <v>145</v>
       </c>
       <c r="M19" t="s">
-        <v>100</v>
+        <v>136</v>
       </c>
       <c r="N19" t="s">
-        <v>118</v>
+        <v>143</v>
       </c>
       <c r="O19" t="s">
-        <v>128</v>
+        <v>151</v>
       </c>
       <c r="P19" t="s">
-        <v>130</v>
+        <v>153</v>
       </c>
       <c r="Q19" t="s">
-        <v>133</v>
+        <v>156</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.2">
@@ -1909,10 +1897,10 @@
         <v>71</v>
       </c>
       <c r="C20" t="s">
-        <v>146</v>
+        <v>122</v>
       </c>
       <c r="D20" t="s">
-        <v>152</v>
+        <v>127</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>44</v>
@@ -1921,37 +1909,37 @@
         <v>72</v>
       </c>
       <c r="G20" t="s">
-        <v>111</v>
+        <v>135</v>
       </c>
       <c r="H20" t="s">
-        <v>112</v>
+        <v>137</v>
       </c>
       <c r="I20" t="s">
-        <v>117</v>
+        <v>141</v>
       </c>
       <c r="J20" t="s">
-        <v>119</v>
+        <v>142</v>
       </c>
       <c r="K20" t="s">
-        <v>122</v>
+        <v>146</v>
       </c>
       <c r="L20" t="s">
-        <v>124</v>
+        <v>145</v>
       </c>
       <c r="M20" t="s">
-        <v>125</v>
+        <v>148</v>
       </c>
       <c r="N20" t="s">
-        <v>118</v>
+        <v>143</v>
       </c>
       <c r="O20" t="s">
-        <v>128</v>
+        <v>151</v>
       </c>
       <c r="P20" t="s">
-        <v>130</v>
+        <v>153</v>
       </c>
       <c r="Q20" t="s">
-        <v>100</v>
+        <v>136</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.2">
@@ -1962,10 +1950,10 @@
         <v>74</v>
       </c>
       <c r="C21" t="s">
-        <v>147</v>
+        <v>123</v>
       </c>
       <c r="D21" t="s">
-        <v>159</v>
+        <v>131</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>75</v>
@@ -1974,37 +1962,37 @@
         <v>76</v>
       </c>
       <c r="G21" t="s">
-        <v>110</v>
+        <v>134</v>
       </c>
       <c r="H21" t="s">
-        <v>114</v>
+        <v>138</v>
       </c>
       <c r="I21" t="s">
-        <v>116</v>
+        <v>140</v>
       </c>
       <c r="J21" t="s">
-        <v>120</v>
+        <v>144</v>
       </c>
       <c r="K21" t="s">
-        <v>123</v>
+        <v>147</v>
       </c>
       <c r="L21" t="s">
-        <v>124</v>
+        <v>145</v>
       </c>
       <c r="M21" t="s">
-        <v>125</v>
+        <v>148</v>
       </c>
       <c r="N21" t="s">
-        <v>127</v>
+        <v>150</v>
       </c>
       <c r="O21" t="s">
-        <v>129</v>
+        <v>152</v>
       </c>
       <c r="P21" t="s">
-        <v>130</v>
+        <v>153</v>
       </c>
       <c r="Q21" t="s">
-        <v>132</v>
+        <v>155</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.2">
@@ -2015,10 +2003,10 @@
         <v>78</v>
       </c>
       <c r="C22" t="s">
-        <v>148</v>
+        <v>124</v>
       </c>
       <c r="D22" t="s">
-        <v>158</v>
+        <v>132</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>9</v>
@@ -2027,37 +2015,37 @@
         <v>79</v>
       </c>
       <c r="G22" t="s">
-        <v>110</v>
+        <v>134</v>
       </c>
       <c r="H22" t="s">
-        <v>115</v>
+        <v>139</v>
       </c>
       <c r="I22" t="s">
-        <v>116</v>
+        <v>140</v>
       </c>
       <c r="J22" t="s">
-        <v>120</v>
+        <v>144</v>
       </c>
       <c r="K22" t="s">
-        <v>123</v>
+        <v>147</v>
       </c>
       <c r="L22" t="s">
-        <v>124</v>
+        <v>145</v>
       </c>
       <c r="M22" t="s">
-        <v>125</v>
+        <v>148</v>
       </c>
       <c r="N22" t="s">
-        <v>127</v>
+        <v>150</v>
       </c>
       <c r="O22" t="s">
-        <v>129</v>
+        <v>152</v>
       </c>
       <c r="P22" t="s">
-        <v>131</v>
+        <v>154</v>
       </c>
       <c r="Q22" t="s">
-        <v>133</v>
+        <v>156</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.2">
@@ -2068,10 +2056,10 @@
         <v>81</v>
       </c>
       <c r="C23" t="s">
-        <v>138</v>
+        <v>114</v>
       </c>
       <c r="D23" t="s">
-        <v>152</v>
+        <v>127</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>82</v>
@@ -2080,37 +2068,37 @@
         <v>83</v>
       </c>
       <c r="G23" t="s">
-        <v>110</v>
+        <v>134</v>
       </c>
       <c r="H23" t="s">
-        <v>112</v>
+        <v>137</v>
       </c>
       <c r="I23" t="s">
-        <v>117</v>
+        <v>141</v>
       </c>
       <c r="J23" t="s">
-        <v>119</v>
+        <v>142</v>
       </c>
       <c r="K23" t="s">
-        <v>122</v>
+        <v>146</v>
       </c>
       <c r="L23" t="s">
-        <v>124</v>
+        <v>145</v>
       </c>
       <c r="M23" t="s">
-        <v>125</v>
+        <v>148</v>
       </c>
       <c r="N23" t="s">
-        <v>127</v>
+        <v>150</v>
       </c>
       <c r="O23" t="s">
-        <v>128</v>
+        <v>151</v>
       </c>
       <c r="P23" t="s">
-        <v>130</v>
+        <v>153</v>
       </c>
       <c r="Q23" t="s">
-        <v>132</v>
+        <v>155</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.2">
@@ -2121,10 +2109,10 @@
         <v>85</v>
       </c>
       <c r="C24" t="s">
-        <v>149</v>
+        <v>125</v>
       </c>
       <c r="D24" t="s">
-        <v>160</v>
+        <v>133</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>86</v>
@@ -2133,37 +2121,37 @@
         <v>82</v>
       </c>
       <c r="G24" t="s">
-        <v>110</v>
+        <v>134</v>
       </c>
       <c r="H24" t="s">
-        <v>112</v>
+        <v>137</v>
       </c>
       <c r="I24" t="s">
-        <v>100</v>
+        <v>136</v>
       </c>
       <c r="J24" t="s">
-        <v>119</v>
+        <v>142</v>
       </c>
       <c r="K24" t="s">
-        <v>122</v>
+        <v>146</v>
       </c>
       <c r="L24" t="s">
-        <v>124</v>
+        <v>145</v>
       </c>
       <c r="M24" t="s">
-        <v>126</v>
+        <v>149</v>
       </c>
       <c r="N24" t="s">
-        <v>118</v>
+        <v>143</v>
       </c>
       <c r="O24" t="s">
-        <v>128</v>
+        <v>151</v>
       </c>
       <c r="P24" t="s">
-        <v>130</v>
+        <v>153</v>
       </c>
       <c r="Q24" t="s">
-        <v>132</v>
+        <v>155</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.2">
@@ -2177,7 +2165,7 @@
         <v>87</v>
       </c>
       <c r="D25" t="s">
-        <v>154</v>
+        <v>129</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>89</v>
@@ -2186,37 +2174,37 @@
         <v>90</v>
       </c>
       <c r="G25" t="s">
-        <v>110</v>
+        <v>134</v>
       </c>
       <c r="H25" t="s">
-        <v>114</v>
+        <v>138</v>
       </c>
       <c r="I25" t="s">
-        <v>116</v>
+        <v>140</v>
       </c>
       <c r="J25" t="s">
-        <v>119</v>
+        <v>142</v>
       </c>
       <c r="K25" t="s">
-        <v>123</v>
+        <v>147</v>
       </c>
       <c r="L25" t="s">
-        <v>124</v>
+        <v>145</v>
       </c>
       <c r="M25" t="s">
-        <v>100</v>
+        <v>136</v>
       </c>
       <c r="N25" t="s">
-        <v>127</v>
+        <v>150</v>
       </c>
       <c r="O25" t="s">
-        <v>100</v>
+        <v>136</v>
       </c>
       <c r="P25" t="s">
-        <v>131</v>
+        <v>154</v>
       </c>
       <c r="Q25" t="s">
-        <v>132</v>
+        <v>155</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.2">
@@ -2227,10 +2215,10 @@
         <v>46</v>
       </c>
       <c r="C26" t="s">
-        <v>150</v>
+        <v>126</v>
       </c>
       <c r="D26" t="s">
-        <v>152</v>
+        <v>127</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>92</v>
@@ -2239,37 +2227,37 @@
         <v>93</v>
       </c>
       <c r="G26" t="s">
-        <v>111</v>
+        <v>135</v>
       </c>
       <c r="H26" t="s">
-        <v>114</v>
+        <v>138</v>
       </c>
       <c r="I26" t="s">
-        <v>100</v>
+        <v>136</v>
       </c>
       <c r="J26" t="s">
-        <v>100</v>
+        <v>136</v>
       </c>
       <c r="K26" t="s">
-        <v>123</v>
+        <v>147</v>
       </c>
       <c r="L26" t="s">
-        <v>124</v>
+        <v>145</v>
       </c>
       <c r="M26" t="s">
-        <v>100</v>
+        <v>136</v>
       </c>
       <c r="N26" t="s">
-        <v>100</v>
+        <v>136</v>
       </c>
       <c r="O26" t="s">
-        <v>100</v>
+        <v>136</v>
       </c>
       <c r="P26" t="s">
-        <v>131</v>
+        <v>154</v>
       </c>
       <c r="Q26" t="s">
-        <v>100</v>
+        <v>136</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.2">
@@ -2280,10 +2268,10 @@
         <v>95</v>
       </c>
       <c r="C27" t="s">
-        <v>136</v>
+        <v>112</v>
       </c>
       <c r="D27" t="s">
-        <v>152</v>
+        <v>127</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>96</v>
@@ -2292,37 +2280,37 @@
         <v>97</v>
       </c>
       <c r="G27" t="s">
-        <v>110</v>
+        <v>134</v>
       </c>
       <c r="H27" t="s">
-        <v>114</v>
+        <v>138</v>
       </c>
       <c r="I27" t="s">
-        <v>116</v>
+        <v>140</v>
       </c>
       <c r="J27" t="s">
-        <v>119</v>
+        <v>142</v>
       </c>
       <c r="K27" t="s">
-        <v>122</v>
+        <v>146</v>
       </c>
       <c r="L27" t="s">
-        <v>124</v>
+        <v>145</v>
       </c>
       <c r="M27" t="s">
-        <v>125</v>
+        <v>148</v>
       </c>
       <c r="N27" t="s">
-        <v>118</v>
+        <v>143</v>
       </c>
       <c r="O27" t="s">
-        <v>128</v>
+        <v>151</v>
       </c>
       <c r="P27" t="s">
-        <v>130</v>
+        <v>153</v>
       </c>
       <c r="Q27" t="s">
-        <v>132</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>

--- a/sources/Daten_Umfrage.xlsx
+++ b/sources/Daten_Umfrage.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16060"/>
+    <workbookView xWindow="14980" yWindow="460" windowWidth="13820" windowHeight="16000"/>
   </bookViews>
   <sheets>
     <sheet name="Blatt1" sheetId="1" r:id="rId1"/>
@@ -335,9 +335,6 @@
     <t>Farbe+Nomen</t>
   </si>
   <si>
-    <t>Numeral+Nomen</t>
-  </si>
-  <si>
     <t>Farbe+Adjektiv</t>
   </si>
   <si>
@@ -353,9 +350,6 @@
     <t>Artikel+Farbe</t>
   </si>
   <si>
-    <t>Artikel+Numeral</t>
-  </si>
-  <si>
     <t>Familie</t>
   </si>
   <si>
@@ -498,6 +492,12 @@
   </si>
   <si>
     <t>Adj-U+Adj</t>
+  </si>
+  <si>
+    <t>Numerale+Nomen</t>
+  </si>
+  <si>
+    <t>Artikel+Numerale</t>
   </si>
 </sst>
 </file>
@@ -860,8 +860,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -890,10 +890,10 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>1</v>
@@ -911,28 +911,28 @@
         <v>99</v>
       </c>
       <c r="J1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K1" t="s">
         <v>101</v>
       </c>
       <c r="L1" t="s">
+        <v>155</v>
+      </c>
+      <c r="M1" t="s">
+        <v>106</v>
+      </c>
+      <c r="N1" t="s">
+        <v>156</v>
+      </c>
+      <c r="O1" t="s">
+        <v>103</v>
+      </c>
+      <c r="P1" t="s">
         <v>102</v>
       </c>
-      <c r="M1" t="s">
-        <v>107</v>
-      </c>
-      <c r="N1" t="s">
-        <v>108</v>
-      </c>
-      <c r="O1" t="s">
-        <v>104</v>
-      </c>
-      <c r="P1" t="s">
-        <v>103</v>
-      </c>
       <c r="Q1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
@@ -943,10 +943,10 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>5</v>
@@ -955,37 +955,37 @@
         <v>6</v>
       </c>
       <c r="G2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I2" t="s">
+        <v>138</v>
+      </c>
+      <c r="J2" t="s">
         <v>140</v>
       </c>
-      <c r="J2" t="s">
-        <v>142</v>
-      </c>
       <c r="K2" t="s">
+        <v>144</v>
+      </c>
+      <c r="L2" t="s">
+        <v>143</v>
+      </c>
+      <c r="M2" t="s">
         <v>146</v>
       </c>
-      <c r="L2" t="s">
-        <v>145</v>
-      </c>
-      <c r="M2" t="s">
-        <v>148</v>
-      </c>
       <c r="N2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="O2" t="s">
+        <v>149</v>
+      </c>
+      <c r="P2" t="s">
         <v>151</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>153</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
@@ -996,10 +996,10 @@
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>5</v>
@@ -1008,37 +1008,37 @@
         <v>9</v>
       </c>
       <c r="G3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I3" t="s">
+        <v>138</v>
+      </c>
+      <c r="J3" t="s">
         <v>140</v>
       </c>
-      <c r="J3" t="s">
-        <v>142</v>
-      </c>
       <c r="K3" t="s">
+        <v>144</v>
+      </c>
+      <c r="L3" t="s">
+        <v>143</v>
+      </c>
+      <c r="M3" t="s">
         <v>146</v>
       </c>
-      <c r="L3" t="s">
-        <v>145</v>
-      </c>
-      <c r="M3" t="s">
-        <v>148</v>
-      </c>
       <c r="N3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="O3" t="s">
+        <v>149</v>
+      </c>
+      <c r="P3" t="s">
         <v>151</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>153</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
@@ -1049,10 +1049,10 @@
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>12</v>
@@ -1061,37 +1061,37 @@
         <v>13</v>
       </c>
       <c r="G4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I4" t="s">
+        <v>138</v>
+      </c>
+      <c r="J4" t="s">
         <v>140</v>
       </c>
-      <c r="J4" t="s">
-        <v>142</v>
-      </c>
       <c r="K4" t="s">
+        <v>144</v>
+      </c>
+      <c r="L4" t="s">
+        <v>143</v>
+      </c>
+      <c r="M4" t="s">
         <v>146</v>
       </c>
-      <c r="L4" t="s">
-        <v>145</v>
-      </c>
-      <c r="M4" t="s">
-        <v>148</v>
-      </c>
       <c r="N4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="O4" t="s">
+        <v>149</v>
+      </c>
+      <c r="P4" t="s">
         <v>151</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>153</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
@@ -1102,10 +1102,10 @@
         <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D5" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>16</v>
@@ -1114,37 +1114,37 @@
         <v>17</v>
       </c>
       <c r="G5" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H5" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="I5" t="s">
+        <v>138</v>
+      </c>
+      <c r="J5" t="s">
         <v>140</v>
       </c>
-      <c r="J5" t="s">
-        <v>142</v>
-      </c>
       <c r="K5" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="L5" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="M5" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="N5" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="O5" t="s">
+        <v>149</v>
+      </c>
+      <c r="P5" t="s">
         <v>151</v>
       </c>
-      <c r="P5" t="s">
+      <c r="Q5" t="s">
         <v>153</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
@@ -1155,10 +1155,10 @@
         <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D6" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>21</v>
@@ -1167,37 +1167,37 @@
         <v>22</v>
       </c>
       <c r="G6" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H6" t="s">
+        <v>136</v>
+      </c>
+      <c r="I6" t="s">
         <v>138</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>140</v>
       </c>
-      <c r="J6" t="s">
-        <v>142</v>
-      </c>
       <c r="K6" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="L6" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="M6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="N6" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="O6" t="s">
+        <v>149</v>
+      </c>
+      <c r="P6" t="s">
         <v>151</v>
       </c>
-      <c r="P6" t="s">
+      <c r="Q6" t="s">
         <v>153</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
@@ -1208,10 +1208,10 @@
         <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>25</v>
@@ -1220,37 +1220,37 @@
         <v>26</v>
       </c>
       <c r="G7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H7" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I7" t="s">
+        <v>138</v>
+      </c>
+      <c r="J7" t="s">
         <v>140</v>
       </c>
-      <c r="J7" t="s">
-        <v>142</v>
-      </c>
       <c r="K7" t="s">
+        <v>144</v>
+      </c>
+      <c r="L7" t="s">
+        <v>143</v>
+      </c>
+      <c r="M7" t="s">
         <v>146</v>
       </c>
-      <c r="L7" t="s">
-        <v>145</v>
-      </c>
-      <c r="M7" t="s">
-        <v>148</v>
-      </c>
       <c r="N7" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="O7" t="s">
+        <v>149</v>
+      </c>
+      <c r="P7" t="s">
         <v>151</v>
       </c>
-      <c r="P7" t="s">
+      <c r="Q7" t="s">
         <v>153</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
@@ -1261,10 +1261,10 @@
         <v>28</v>
       </c>
       <c r="C8" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D8" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>25</v>
@@ -1273,37 +1273,37 @@
         <v>29</v>
       </c>
       <c r="G8" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H8" t="s">
+        <v>136</v>
+      </c>
+      <c r="I8" t="s">
         <v>138</v>
       </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>140</v>
       </c>
-      <c r="J8" t="s">
-        <v>142</v>
-      </c>
       <c r="K8" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="L8" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="M8" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="N8" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="O8" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="P8" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q8" t="s">
         <v>154</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
@@ -1314,10 +1314,10 @@
         <v>31</v>
       </c>
       <c r="C9" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D9" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>5</v>
@@ -1326,37 +1326,37 @@
         <v>32</v>
       </c>
       <c r="G9" t="s">
+        <v>132</v>
+      </c>
+      <c r="H9" t="s">
+        <v>135</v>
+      </c>
+      <c r="I9" t="s">
+        <v>138</v>
+      </c>
+      <c r="J9" t="s">
+        <v>140</v>
+      </c>
+      <c r="K9" t="s">
+        <v>144</v>
+      </c>
+      <c r="L9" t="s">
+        <v>143</v>
+      </c>
+      <c r="M9" t="s">
         <v>134</v>
       </c>
-      <c r="H9" t="s">
-        <v>137</v>
-      </c>
-      <c r="I9" t="s">
-        <v>140</v>
-      </c>
-      <c r="J9" t="s">
-        <v>142</v>
-      </c>
-      <c r="K9" t="s">
-        <v>146</v>
-      </c>
-      <c r="L9" t="s">
-        <v>145</v>
-      </c>
-      <c r="M9" t="s">
-        <v>136</v>
-      </c>
       <c r="N9" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="O9" t="s">
+        <v>149</v>
+      </c>
+      <c r="P9" t="s">
         <v>151</v>
       </c>
-      <c r="P9" t="s">
-        <v>153</v>
-      </c>
       <c r="Q9" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
@@ -1367,10 +1367,10 @@
         <v>34</v>
       </c>
       <c r="C10" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D10" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>35</v>
@@ -1379,37 +1379,37 @@
         <v>36</v>
       </c>
       <c r="G10" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H10" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I10" t="s">
+        <v>138</v>
+      </c>
+      <c r="J10" t="s">
         <v>140</v>
       </c>
-      <c r="J10" t="s">
-        <v>142</v>
-      </c>
       <c r="K10" t="s">
+        <v>144</v>
+      </c>
+      <c r="L10" t="s">
+        <v>143</v>
+      </c>
+      <c r="M10" t="s">
         <v>146</v>
       </c>
-      <c r="L10" t="s">
-        <v>145</v>
-      </c>
-      <c r="M10" t="s">
-        <v>148</v>
-      </c>
       <c r="N10" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="O10" t="s">
+        <v>149</v>
+      </c>
+      <c r="P10" t="s">
         <v>151</v>
       </c>
-      <c r="P10" t="s">
-        <v>153</v>
-      </c>
       <c r="Q10" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.2">
@@ -1420,10 +1420,10 @@
         <v>38</v>
       </c>
       <c r="C11" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D11" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>39</v>
@@ -1432,37 +1432,37 @@
         <v>40</v>
       </c>
       <c r="G11" t="s">
+        <v>132</v>
+      </c>
+      <c r="H11" t="s">
+        <v>135</v>
+      </c>
+      <c r="I11" t="s">
+        <v>138</v>
+      </c>
+      <c r="J11" t="s">
+        <v>140</v>
+      </c>
+      <c r="K11" t="s">
+        <v>144</v>
+      </c>
+      <c r="L11" t="s">
+        <v>143</v>
+      </c>
+      <c r="M11" t="s">
         <v>134</v>
       </c>
-      <c r="H11" t="s">
-        <v>137</v>
-      </c>
-      <c r="I11" t="s">
-        <v>140</v>
-      </c>
-      <c r="J11" t="s">
-        <v>142</v>
-      </c>
-      <c r="K11" t="s">
-        <v>146</v>
-      </c>
-      <c r="L11" t="s">
-        <v>145</v>
-      </c>
-      <c r="M11" t="s">
-        <v>136</v>
-      </c>
       <c r="N11" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="O11" t="s">
+        <v>149</v>
+      </c>
+      <c r="P11" t="s">
         <v>151</v>
       </c>
-      <c r="P11" t="s">
-        <v>153</v>
-      </c>
       <c r="Q11" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.2">
@@ -1473,10 +1473,10 @@
         <v>42</v>
       </c>
       <c r="C12" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D12" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>43</v>
@@ -1485,37 +1485,37 @@
         <v>44</v>
       </c>
       <c r="G12" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H12" t="s">
+        <v>136</v>
+      </c>
+      <c r="I12" t="s">
         <v>138</v>
       </c>
-      <c r="I12" t="s">
+      <c r="J12" t="s">
         <v>140</v>
       </c>
-      <c r="J12" t="s">
-        <v>142</v>
-      </c>
       <c r="K12" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="L12" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="M12" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="N12" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="O12" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="P12" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q12" t="s">
         <v>154</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.2">
@@ -1526,10 +1526,10 @@
         <v>46</v>
       </c>
       <c r="C13" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D13" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>47</v>
@@ -1538,37 +1538,37 @@
         <v>48</v>
       </c>
       <c r="G13" t="s">
+        <v>132</v>
+      </c>
+      <c r="H13" t="s">
+        <v>135</v>
+      </c>
+      <c r="I13" t="s">
+        <v>139</v>
+      </c>
+      <c r="J13" t="s">
+        <v>140</v>
+      </c>
+      <c r="K13" t="s">
+        <v>144</v>
+      </c>
+      <c r="L13" t="s">
+        <v>143</v>
+      </c>
+      <c r="M13" t="s">
         <v>134</v>
       </c>
-      <c r="H13" t="s">
-        <v>137</v>
-      </c>
-      <c r="I13" t="s">
+      <c r="N13" t="s">
         <v>141</v>
       </c>
-      <c r="J13" t="s">
-        <v>142</v>
-      </c>
-      <c r="K13" t="s">
-        <v>146</v>
-      </c>
-      <c r="L13" t="s">
-        <v>145</v>
-      </c>
-      <c r="M13" t="s">
-        <v>136</v>
-      </c>
-      <c r="N13" t="s">
-        <v>143</v>
-      </c>
       <c r="O13" t="s">
+        <v>149</v>
+      </c>
+      <c r="P13" t="s">
         <v>151</v>
       </c>
-      <c r="P13" t="s">
+      <c r="Q13" t="s">
         <v>153</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.2">
@@ -1579,10 +1579,10 @@
         <v>50</v>
       </c>
       <c r="C14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D14" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>25</v>
@@ -1591,37 +1591,37 @@
         <v>51</v>
       </c>
       <c r="G14" t="s">
+        <v>133</v>
+      </c>
+      <c r="H14" t="s">
         <v>135</v>
       </c>
-      <c r="H14" t="s">
-        <v>137</v>
-      </c>
       <c r="I14" t="s">
+        <v>139</v>
+      </c>
+      <c r="J14" t="s">
+        <v>140</v>
+      </c>
+      <c r="K14" t="s">
+        <v>144</v>
+      </c>
+      <c r="L14" t="s">
+        <v>143</v>
+      </c>
+      <c r="M14" t="s">
+        <v>146</v>
+      </c>
+      <c r="N14" t="s">
         <v>141</v>
       </c>
-      <c r="J14" t="s">
-        <v>142</v>
-      </c>
-      <c r="K14" t="s">
-        <v>146</v>
-      </c>
-      <c r="L14" t="s">
-        <v>145</v>
-      </c>
-      <c r="M14" t="s">
-        <v>148</v>
-      </c>
-      <c r="N14" t="s">
-        <v>143</v>
-      </c>
       <c r="O14" t="s">
+        <v>149</v>
+      </c>
+      <c r="P14" t="s">
         <v>151</v>
       </c>
-      <c r="P14" t="s">
+      <c r="Q14" t="s">
         <v>153</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.2">
@@ -1632,10 +1632,10 @@
         <v>53</v>
       </c>
       <c r="C15" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D15" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>54</v>
@@ -1644,37 +1644,37 @@
         <v>55</v>
       </c>
       <c r="G15" t="s">
+        <v>133</v>
+      </c>
+      <c r="H15" t="s">
         <v>135</v>
       </c>
-      <c r="H15" t="s">
-        <v>137</v>
-      </c>
       <c r="I15" t="s">
+        <v>139</v>
+      </c>
+      <c r="J15" t="s">
+        <v>140</v>
+      </c>
+      <c r="K15" t="s">
+        <v>144</v>
+      </c>
+      <c r="L15" t="s">
+        <v>143</v>
+      </c>
+      <c r="M15" t="s">
+        <v>146</v>
+      </c>
+      <c r="N15" t="s">
         <v>141</v>
       </c>
-      <c r="J15" t="s">
-        <v>142</v>
-      </c>
-      <c r="K15" t="s">
-        <v>146</v>
-      </c>
-      <c r="L15" t="s">
-        <v>145</v>
-      </c>
-      <c r="M15" t="s">
-        <v>148</v>
-      </c>
-      <c r="N15" t="s">
-        <v>143</v>
-      </c>
       <c r="O15" t="s">
+        <v>149</v>
+      </c>
+      <c r="P15" t="s">
         <v>151</v>
       </c>
-      <c r="P15" t="s">
+      <c r="Q15" t="s">
         <v>153</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.2">
@@ -1685,7 +1685,7 @@
         <v>57</v>
       </c>
       <c r="C16" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D16" t="s">
         <v>56</v>
@@ -1697,37 +1697,37 @@
         <v>58</v>
       </c>
       <c r="G16" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H16" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I16" t="s">
+        <v>139</v>
+      </c>
+      <c r="J16" t="s">
+        <v>140</v>
+      </c>
+      <c r="K16" t="s">
+        <v>144</v>
+      </c>
+      <c r="L16" t="s">
+        <v>143</v>
+      </c>
+      <c r="M16" t="s">
+        <v>146</v>
+      </c>
+      <c r="N16" t="s">
         <v>141</v>
       </c>
-      <c r="J16" t="s">
-        <v>142</v>
-      </c>
-      <c r="K16" t="s">
-        <v>146</v>
-      </c>
-      <c r="L16" t="s">
-        <v>145</v>
-      </c>
-      <c r="M16" t="s">
-        <v>148</v>
-      </c>
-      <c r="N16" t="s">
-        <v>143</v>
-      </c>
       <c r="O16" t="s">
+        <v>149</v>
+      </c>
+      <c r="P16" t="s">
         <v>151</v>
       </c>
-      <c r="P16" t="s">
+      <c r="Q16" t="s">
         <v>153</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.2">
@@ -1738,10 +1738,10 @@
         <v>57</v>
       </c>
       <c r="C17" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D17" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>60</v>
@@ -1750,37 +1750,37 @@
         <v>61</v>
       </c>
       <c r="G17" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H17" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I17" t="s">
+        <v>139</v>
+      </c>
+      <c r="J17" t="s">
+        <v>140</v>
+      </c>
+      <c r="K17" t="s">
+        <v>144</v>
+      </c>
+      <c r="L17" t="s">
+        <v>143</v>
+      </c>
+      <c r="M17" t="s">
+        <v>146</v>
+      </c>
+      <c r="N17" t="s">
         <v>141</v>
       </c>
-      <c r="J17" t="s">
-        <v>142</v>
-      </c>
-      <c r="K17" t="s">
-        <v>146</v>
-      </c>
-      <c r="L17" t="s">
-        <v>145</v>
-      </c>
-      <c r="M17" t="s">
-        <v>148</v>
-      </c>
-      <c r="N17" t="s">
-        <v>143</v>
-      </c>
       <c r="O17" t="s">
+        <v>149</v>
+      </c>
+      <c r="P17" t="s">
         <v>151</v>
       </c>
-      <c r="P17" t="s">
-        <v>153</v>
-      </c>
       <c r="Q17" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.2">
@@ -1791,7 +1791,7 @@
         <v>63</v>
       </c>
       <c r="C18" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D18" t="s">
         <v>62</v>
@@ -1803,37 +1803,37 @@
         <v>65</v>
       </c>
       <c r="G18" t="s">
+        <v>133</v>
+      </c>
+      <c r="H18" t="s">
         <v>135</v>
       </c>
-      <c r="H18" t="s">
-        <v>137</v>
-      </c>
       <c r="I18" t="s">
+        <v>139</v>
+      </c>
+      <c r="J18" t="s">
+        <v>140</v>
+      </c>
+      <c r="K18" t="s">
+        <v>144</v>
+      </c>
+      <c r="L18" t="s">
+        <v>143</v>
+      </c>
+      <c r="M18" t="s">
+        <v>134</v>
+      </c>
+      <c r="N18" t="s">
         <v>141</v>
       </c>
-      <c r="J18" t="s">
-        <v>142</v>
-      </c>
-      <c r="K18" t="s">
-        <v>146</v>
-      </c>
-      <c r="L18" t="s">
-        <v>145</v>
-      </c>
-      <c r="M18" t="s">
-        <v>136</v>
-      </c>
-      <c r="N18" t="s">
-        <v>143</v>
-      </c>
       <c r="O18" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="P18" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="Q18" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.2">
@@ -1844,7 +1844,7 @@
         <v>67</v>
       </c>
       <c r="C19" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D19" t="s">
         <v>66</v>
@@ -1856,37 +1856,37 @@
         <v>69</v>
       </c>
       <c r="G19" t="s">
+        <v>133</v>
+      </c>
+      <c r="H19" t="s">
         <v>135</v>
       </c>
-      <c r="H19" t="s">
-        <v>137</v>
-      </c>
       <c r="I19" t="s">
+        <v>139</v>
+      </c>
+      <c r="J19" t="s">
+        <v>140</v>
+      </c>
+      <c r="K19" t="s">
+        <v>144</v>
+      </c>
+      <c r="L19" t="s">
+        <v>143</v>
+      </c>
+      <c r="M19" t="s">
+        <v>134</v>
+      </c>
+      <c r="N19" t="s">
         <v>141</v>
       </c>
-      <c r="J19" t="s">
-        <v>142</v>
-      </c>
-      <c r="K19" t="s">
-        <v>146</v>
-      </c>
-      <c r="L19" t="s">
-        <v>145</v>
-      </c>
-      <c r="M19" t="s">
-        <v>136</v>
-      </c>
-      <c r="N19" t="s">
-        <v>143</v>
-      </c>
       <c r="O19" t="s">
+        <v>149</v>
+      </c>
+      <c r="P19" t="s">
         <v>151</v>
       </c>
-      <c r="P19" t="s">
-        <v>153</v>
-      </c>
       <c r="Q19" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.2">
@@ -1897,10 +1897,10 @@
         <v>71</v>
       </c>
       <c r="C20" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D20" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>44</v>
@@ -1909,37 +1909,37 @@
         <v>72</v>
       </c>
       <c r="G20" t="s">
+        <v>133</v>
+      </c>
+      <c r="H20" t="s">
         <v>135</v>
       </c>
-      <c r="H20" t="s">
-        <v>137</v>
-      </c>
       <c r="I20" t="s">
+        <v>139</v>
+      </c>
+      <c r="J20" t="s">
+        <v>140</v>
+      </c>
+      <c r="K20" t="s">
+        <v>144</v>
+      </c>
+      <c r="L20" t="s">
+        <v>143</v>
+      </c>
+      <c r="M20" t="s">
+        <v>146</v>
+      </c>
+      <c r="N20" t="s">
         <v>141</v>
       </c>
-      <c r="J20" t="s">
-        <v>142</v>
-      </c>
-      <c r="K20" t="s">
-        <v>146</v>
-      </c>
-      <c r="L20" t="s">
-        <v>145</v>
-      </c>
-      <c r="M20" t="s">
-        <v>148</v>
-      </c>
-      <c r="N20" t="s">
-        <v>143</v>
-      </c>
       <c r="O20" t="s">
+        <v>149</v>
+      </c>
+      <c r="P20" t="s">
         <v>151</v>
       </c>
-      <c r="P20" t="s">
-        <v>153</v>
-      </c>
       <c r="Q20" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.2">
@@ -1950,10 +1950,10 @@
         <v>74</v>
       </c>
       <c r="C21" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D21" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>75</v>
@@ -1962,37 +1962,37 @@
         <v>76</v>
       </c>
       <c r="G21" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H21" t="s">
+        <v>136</v>
+      </c>
+      <c r="I21" t="s">
         <v>138</v>
       </c>
-      <c r="I21" t="s">
-        <v>140</v>
-      </c>
       <c r="J21" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="K21" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="L21" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="M21" t="s">
+        <v>146</v>
+      </c>
+      <c r="N21" t="s">
         <v>148</v>
       </c>
-      <c r="N21" t="s">
+      <c r="O21" t="s">
         <v>150</v>
       </c>
-      <c r="O21" t="s">
-        <v>152</v>
-      </c>
       <c r="P21" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q21" t="s">
         <v>153</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.2">
@@ -2003,10 +2003,10 @@
         <v>78</v>
       </c>
       <c r="C22" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D22" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>9</v>
@@ -2015,37 +2015,37 @@
         <v>79</v>
       </c>
       <c r="G22" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H22" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="I22" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="J22" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="K22" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="L22" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="M22" t="s">
+        <v>146</v>
+      </c>
+      <c r="N22" t="s">
         <v>148</v>
       </c>
-      <c r="N22" t="s">
+      <c r="O22" t="s">
         <v>150</v>
       </c>
-      <c r="O22" t="s">
+      <c r="P22" t="s">
         <v>152</v>
       </c>
-      <c r="P22" t="s">
+      <c r="Q22" t="s">
         <v>154</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.2">
@@ -2056,10 +2056,10 @@
         <v>81</v>
       </c>
       <c r="C23" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D23" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>82</v>
@@ -2068,37 +2068,37 @@
         <v>83</v>
       </c>
       <c r="G23" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H23" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I23" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="J23" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="K23" t="s">
+        <v>144</v>
+      </c>
+      <c r="L23" t="s">
+        <v>143</v>
+      </c>
+      <c r="M23" t="s">
         <v>146</v>
       </c>
-      <c r="L23" t="s">
-        <v>145</v>
-      </c>
-      <c r="M23" t="s">
+      <c r="N23" t="s">
         <v>148</v>
       </c>
-      <c r="N23" t="s">
-        <v>150</v>
-      </c>
       <c r="O23" t="s">
+        <v>149</v>
+      </c>
+      <c r="P23" t="s">
         <v>151</v>
       </c>
-      <c r="P23" t="s">
+      <c r="Q23" t="s">
         <v>153</v>
-      </c>
-      <c r="Q23" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.2">
@@ -2109,10 +2109,10 @@
         <v>85</v>
       </c>
       <c r="C24" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D24" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>86</v>
@@ -2121,37 +2121,37 @@
         <v>82</v>
       </c>
       <c r="G24" t="s">
+        <v>132</v>
+      </c>
+      <c r="H24" t="s">
+        <v>135</v>
+      </c>
+      <c r="I24" t="s">
         <v>134</v>
       </c>
-      <c r="H24" t="s">
-        <v>137</v>
-      </c>
-      <c r="I24" t="s">
-        <v>136</v>
-      </c>
       <c r="J24" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="K24" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="L24" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="M24" t="s">
+        <v>147</v>
+      </c>
+      <c r="N24" t="s">
+        <v>141</v>
+      </c>
+      <c r="O24" t="s">
         <v>149</v>
       </c>
-      <c r="N24" t="s">
-        <v>143</v>
-      </c>
-      <c r="O24" t="s">
+      <c r="P24" t="s">
         <v>151</v>
       </c>
-      <c r="P24" t="s">
+      <c r="Q24" t="s">
         <v>153</v>
-      </c>
-      <c r="Q24" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.2">
@@ -2165,7 +2165,7 @@
         <v>87</v>
       </c>
       <c r="D25" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>89</v>
@@ -2174,37 +2174,37 @@
         <v>90</v>
       </c>
       <c r="G25" t="s">
+        <v>132</v>
+      </c>
+      <c r="H25" t="s">
+        <v>136</v>
+      </c>
+      <c r="I25" t="s">
+        <v>138</v>
+      </c>
+      <c r="J25" t="s">
+        <v>140</v>
+      </c>
+      <c r="K25" t="s">
+        <v>145</v>
+      </c>
+      <c r="L25" t="s">
+        <v>143</v>
+      </c>
+      <c r="M25" t="s">
         <v>134</v>
       </c>
-      <c r="H25" t="s">
-        <v>138</v>
-      </c>
-      <c r="I25" t="s">
-        <v>140</v>
-      </c>
-      <c r="J25" t="s">
-        <v>142</v>
-      </c>
-      <c r="K25" t="s">
-        <v>147</v>
-      </c>
-      <c r="L25" t="s">
-        <v>145</v>
-      </c>
-      <c r="M25" t="s">
-        <v>136</v>
-      </c>
       <c r="N25" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="O25" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="P25" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="Q25" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.2">
@@ -2215,10 +2215,10 @@
         <v>46</v>
       </c>
       <c r="C26" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D26" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>92</v>
@@ -2227,37 +2227,37 @@
         <v>93</v>
       </c>
       <c r="G26" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="H26" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="I26" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="J26" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="K26" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="L26" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="M26" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="N26" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="O26" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="P26" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="Q26" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.2">
@@ -2268,10 +2268,10 @@
         <v>95</v>
       </c>
       <c r="C27" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D27" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>96</v>
@@ -2280,37 +2280,37 @@
         <v>97</v>
       </c>
       <c r="G27" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H27" t="s">
+        <v>136</v>
+      </c>
+      <c r="I27" t="s">
         <v>138</v>
       </c>
-      <c r="I27" t="s">
+      <c r="J27" t="s">
         <v>140</v>
       </c>
-      <c r="J27" t="s">
-        <v>142</v>
-      </c>
       <c r="K27" t="s">
+        <v>144</v>
+      </c>
+      <c r="L27" t="s">
+        <v>143</v>
+      </c>
+      <c r="M27" t="s">
         <v>146</v>
       </c>
-      <c r="L27" t="s">
-        <v>145</v>
-      </c>
-      <c r="M27" t="s">
-        <v>148</v>
-      </c>
       <c r="N27" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="O27" t="s">
+        <v>149</v>
+      </c>
+      <c r="P27" t="s">
         <v>151</v>
       </c>
-      <c r="P27" t="s">
+      <c r="Q27" t="s">
         <v>153</v>
-      </c>
-      <c r="Q27" t="s">
-        <v>155</v>
       </c>
     </row>
   </sheetData>

--- a/sources/Daten_Umfrage.xlsx
+++ b/sources/Daten_Umfrage.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="14980" yWindow="460" windowWidth="13820" windowHeight="16000"/>
+    <workbookView xWindow="4700" yWindow="4740" windowWidth="24100" windowHeight="12440"/>
   </bookViews>
   <sheets>
     <sheet name="Blatt1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Blatt1!$A$1:$Q$27</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -860,8 +860,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="Q5" sqref="Q5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
